--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_23_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_23_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1202452.499786969</v>
+        <v>1198505.032991204</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34062539.08099042</v>
+        <v>34075227.35410684</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6110745.10871403</v>
+        <v>6024135.896293356</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3921323.081778759</v>
+        <v>3931452.786166979</v>
       </c>
     </row>
     <row r="11">
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>354.1817881805337</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>233.8765987329761</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735098</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1463,7 +1463,7 @@
         <v>82.55</v>
       </c>
       <c r="G12" t="n">
-        <v>83.52738940623995</v>
+        <v>83.52738940623971</v>
       </c>
       <c r="H12" t="n">
         <v>31.62322353306971</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>44.17482029426295</v>
+        <v>44.1748202942631</v>
       </c>
       <c r="T12" t="n">
         <v>124.8306395731037</v>
       </c>
       <c r="U12" t="n">
-        <v>174.5071388043577</v>
+        <v>174.5071388043578</v>
       </c>
       <c r="V12" t="n">
         <v>197.1263427586206</v>
@@ -1530,19 +1530,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>77.20378078338567</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>53.19117033386465</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
@@ -1615,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>414.1111261776111</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>386.0300352900443</v>
       </c>
       <c r="H14" t="n">
-        <v>262.2153435565509</v>
+        <v>257.5467068242554</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>200.1759098983057</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>247.0023554464279</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>390.3980486570803</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>394.7256333460699</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>180.422803414524</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>161.3584652843341</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>154.7415837532193</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>165.4623543805881</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>153.6161394663335</v>
       </c>
       <c r="H16" t="n">
-        <v>45.65000012971668</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>133.5046439935346</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8247518556274</v>
+        <v>230.3471227383542</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>266.1251365144712</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>135.4550019777294</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>259.8285112522981</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>233.4602080026484</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>215.6678448617596</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>298.3203402310564</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>377.629222752662</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>414.1111261776111</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>386.0300352900443</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>391.3292709258038</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>405.4734096692092</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>394.7256333460699</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>180.422803414524</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>161.3584652843341</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>10.62160667178486</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>158.5827945944969</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>165.4623543805881</v>
       </c>
       <c r="G19" t="n">
-        <v>14.73944708527216</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>133.5046439935346</v>
       </c>
       <c r="T19" t="n">
-        <v>239.8247518556274</v>
+        <v>230.3471227383542</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>266.1251365144712</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>274.6083239310006</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>259.8285112522981</v>
       </c>
       <c r="X19" t="n">
-        <v>242.9378371199217</v>
+        <v>233.4602080026484</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>215.6678448617596</v>
       </c>
     </row>
     <row r="20">
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>163.2199256052768</v>
+        <v>412.5589456627854</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>424.2834189711377</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>422.0730578600267</v>
       </c>
       <c r="E20" t="n">
-        <v>400.3343377895058</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>414.1111261776111</v>
       </c>
       <c r="G20" t="n">
-        <v>366.4050048035356</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>30.58407697007774</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>227.3773249599192</v>
+        <v>180.9057803289462</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>371.704240439295</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.8483791827004</v>
+        <v>405.4734096692092</v>
       </c>
       <c r="Y20" t="n">
-        <v>375.1006028595611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>160.7977729280152</v>
+        <v>180.422803414524</v>
       </c>
       <c r="C22" t="n">
-        <v>141.7334347978253</v>
+        <v>161.3584652843341</v>
       </c>
       <c r="D22" t="n">
-        <v>135.1165532667105</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>138.9577641079881</v>
+        <v>158.5827945944969</v>
       </c>
       <c r="F22" t="n">
-        <v>145.8373238940793</v>
+        <v>165.4623543805881</v>
       </c>
       <c r="G22" t="n">
-        <v>133.9911089798248</v>
+        <v>153.6161394663335</v>
       </c>
       <c r="H22" t="n">
-        <v>101.9179604106952</v>
+        <v>72.67331206721039</v>
       </c>
       <c r="I22" t="n">
-        <v>33.36167409433242</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>113.8796135070258</v>
+        <v>133.5046439935346</v>
       </c>
       <c r="T22" t="n">
-        <v>210.7220922518454</v>
+        <v>230.3471227383542</v>
       </c>
       <c r="U22" t="n">
-        <v>246.5001060279624</v>
+        <v>266.1251365144712</v>
       </c>
       <c r="V22" t="n">
-        <v>77.09293871630935</v>
+        <v>274.6083239310006</v>
       </c>
       <c r="W22" t="n">
-        <v>240.2034807657894</v>
+        <v>259.8285112522981</v>
       </c>
       <c r="X22" t="n">
-        <v>213.8351775161397</v>
+        <v>233.4602080026484</v>
       </c>
       <c r="Y22" t="n">
-        <v>196.0428143752508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>392.9339151762767</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>424.2834189711377</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>422.0730578600267</v>
       </c>
       <c r="E23" t="n">
-        <v>400.3343377895058</v>
+        <v>419.9593682760145</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>386.0300352900443</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>257.5467068242554</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>30.58407697007775</v>
       </c>
       <c r="T23" t="n">
-        <v>180.5508794117969</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>227.3773249599192</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>329.8881209617297</v>
+        <v>349.5131514482385</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>383.8046344810045</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>375.1006028595611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>160.7977729280152</v>
+        <v>180.422803414524</v>
       </c>
       <c r="C25" t="n">
-        <v>141.7334347978253</v>
+        <v>161.3584652843341</v>
       </c>
       <c r="D25" t="n">
-        <v>135.1165532667105</v>
+        <v>154.7415837532193</v>
       </c>
       <c r="E25" t="n">
-        <v>62.98536979050075</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.8373238940793</v>
+        <v>165.4623543805881</v>
       </c>
       <c r="G25" t="n">
-        <v>133.9911089798248</v>
+        <v>153.6161394663335</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>121.542990897204</v>
       </c>
       <c r="I25" t="n">
-        <v>33.36167409433242</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>113.8796135070258</v>
+        <v>133.5046439935346</v>
       </c>
       <c r="T25" t="n">
-        <v>210.7220922518454</v>
+        <v>230.3471227383542</v>
       </c>
       <c r="U25" t="n">
-        <v>246.5001060279624</v>
+        <v>266.1251365144712</v>
       </c>
       <c r="V25" t="n">
-        <v>254.9832934444918</v>
+        <v>13.91201108052567</v>
       </c>
       <c r="W25" t="n">
-        <v>240.2034807657894</v>
+        <v>259.8285112522981</v>
       </c>
       <c r="X25" t="n">
-        <v>213.8351775161397</v>
+        <v>233.4602080026484</v>
       </c>
       <c r="Y25" t="n">
-        <v>196.0428143752508</v>
+        <v>215.6678448617596</v>
       </c>
     </row>
     <row r="26">
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>404.6583884846289</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>402.4480273735179</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>400.3343377895058</v>
+        <v>363.2103341072686</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>414.1111261776111</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>386.0300352900443</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>257.5467068242554</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>10.95904648356898</v>
+        <v>30.58407697007774</v>
       </c>
       <c r="T26" t="n">
-        <v>180.5508794117969</v>
+        <v>200.1759098983057</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>247.0023554464279</v>
       </c>
       <c r="V26" t="n">
-        <v>329.8881209617297</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>391.3292709258038</v>
       </c>
       <c r="X26" t="n">
-        <v>186.0504122754849</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>375.1006028595611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>160.7977729280152</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>141.7334347978253</v>
+        <v>85.18330153480441</v>
       </c>
       <c r="D28" t="n">
-        <v>135.1165532667105</v>
+        <v>154.7415837532193</v>
       </c>
       <c r="E28" t="n">
-        <v>96.34704388483362</v>
+        <v>158.5827945944969</v>
       </c>
       <c r="F28" t="n">
-        <v>145.8373238940793</v>
+        <v>165.4623543805881</v>
       </c>
       <c r="G28" t="n">
-        <v>133.9911089798248</v>
+        <v>153.6161394663335</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>121.542990897204</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>52.98670458084118</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>113.8796135070258</v>
+        <v>133.5046439935346</v>
       </c>
       <c r="T28" t="n">
-        <v>210.7220922518454</v>
+        <v>230.3471227383542</v>
       </c>
       <c r="U28" t="n">
-        <v>246.5001060279624</v>
+        <v>266.1251365144712</v>
       </c>
       <c r="V28" t="n">
-        <v>254.9832934444918</v>
+        <v>274.6083239310006</v>
       </c>
       <c r="W28" t="n">
-        <v>240.2034807657894</v>
+        <v>259.8285112522981</v>
       </c>
       <c r="X28" t="n">
-        <v>213.8351775161397</v>
+        <v>233.4602080026484</v>
       </c>
       <c r="Y28" t="n">
-        <v>196.0428143752508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>401.926109574712</v>
       </c>
       <c r="C29" t="n">
-        <v>363.5138112095714</v>
+        <v>288.3635812660567</v>
       </c>
       <c r="D29" t="n">
-        <v>397.2837112608696</v>
+        <v>411.4402217719532</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>409.326532187941</v>
       </c>
       <c r="F29" t="n">
-        <v>389.321779578454</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>5.794730370920647</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>175.3865632991485</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>222.2130088472708</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>366.5399243266467</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>394.8405735811357</v>
       </c>
       <c r="Y29" t="n">
-        <v>369.9362867469127</v>
+        <v>384.0927972579964</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.6334568153669</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>136.569118685177</v>
+        <v>150.7256291962606</v>
       </c>
       <c r="D31" t="n">
-        <v>129.9522371540622</v>
+        <v>144.1087476651458</v>
       </c>
       <c r="E31" t="n">
-        <v>133.7934479953398</v>
+        <v>147.9499585064234</v>
       </c>
       <c r="F31" t="n">
-        <v>140.673007781431</v>
+        <v>154.8295182925146</v>
       </c>
       <c r="G31" t="n">
-        <v>128.8267928671764</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>96.75364429804689</v>
+        <v>110.9101548091305</v>
       </c>
       <c r="I31" t="n">
-        <v>28.19735798168409</v>
+        <v>42.3538684927677</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>108.7152973943775</v>
+        <v>122.8718079054611</v>
       </c>
       <c r="T31" t="n">
-        <v>105.1321631007407</v>
+        <v>219.7142866502807</v>
       </c>
       <c r="U31" t="n">
-        <v>241.3357899153141</v>
+        <v>255.4923004263979</v>
       </c>
       <c r="V31" t="n">
-        <v>249.8189773318435</v>
+        <v>263.9754878429271</v>
       </c>
       <c r="W31" t="n">
-        <v>235.039164653141</v>
+        <v>249.1956751642246</v>
       </c>
       <c r="X31" t="n">
-        <v>208.6708614034913</v>
+        <v>222.8273719145749</v>
       </c>
       <c r="Y31" t="n">
-        <v>190.8784982626024</v>
+        <v>205.0350087736861</v>
       </c>
     </row>
     <row r="32">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>392.5478677674088</v>
       </c>
       <c r="C32" t="n">
-        <v>399.4940723719806</v>
+        <v>404.2723410757611</v>
       </c>
       <c r="D32" t="n">
-        <v>397.2837112608696</v>
+        <v>402.06197996465</v>
       </c>
       <c r="E32" t="n">
-        <v>395.1700216768574</v>
+        <v>399.9482903806379</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>394.1000482822345</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>139.352790409256</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>222.2130088472708</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>366.5399243266467</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>297.059288169102</v>
       </c>
       <c r="Y32" t="n">
-        <v>369.9362867469127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>44.17482029426311</v>
+        <v>44.17482029426318</v>
       </c>
       <c r="T33" t="n">
         <v>124.8306395731037</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.6334568153669</v>
+        <v>160.4117255191474</v>
       </c>
       <c r="C34" t="n">
-        <v>136.569118685177</v>
+        <v>141.3473873889575</v>
       </c>
       <c r="D34" t="n">
-        <v>129.9522371540622</v>
+        <v>134.7305058578427</v>
       </c>
       <c r="E34" t="n">
-        <v>133.7934479953398</v>
+        <v>138.5717166991203</v>
       </c>
       <c r="F34" t="n">
-        <v>140.673007781431</v>
+        <v>145.4512764852115</v>
       </c>
       <c r="G34" t="n">
-        <v>128.8267928671764</v>
+        <v>133.6050615709569</v>
       </c>
       <c r="H34" t="n">
-        <v>96.75364429804689</v>
+        <v>101.5319130018274</v>
       </c>
       <c r="I34" t="n">
-        <v>28.19735798168409</v>
+        <v>32.97562668546459</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>108.7152973943775</v>
+        <v>113.493566098158</v>
       </c>
       <c r="T34" t="n">
-        <v>205.5577761391971</v>
+        <v>38.23640124781333</v>
       </c>
       <c r="U34" t="n">
-        <v>241.3357899153141</v>
+        <v>246.1140586190946</v>
       </c>
       <c r="V34" t="n">
-        <v>149.3933642933864</v>
+        <v>254.597246035624</v>
       </c>
       <c r="W34" t="n">
-        <v>235.039164653141</v>
+        <v>239.8174333569216</v>
       </c>
       <c r="X34" t="n">
-        <v>208.6708614034913</v>
+        <v>213.4491301072718</v>
       </c>
       <c r="Y34" t="n">
-        <v>190.8784982626024</v>
+        <v>195.656766966383</v>
       </c>
     </row>
     <row r="35">
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>276.6786300171111</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>426.3863708646516</v>
+        <v>402.06197996465</v>
       </c>
       <c r="E35" t="n">
-        <v>424.2726812806394</v>
+        <v>399.9482903806379</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>394.1000482822345</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>337.0989722080115</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3325,16 +3325,16 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.8264644528634</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>371.3181930304272</v>
       </c>
       <c r="X35" t="n">
-        <v>409.786722673834</v>
+        <v>385.4623317738325</v>
       </c>
       <c r="Y35" t="n">
-        <v>399.0389463506947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>184.7361164191489</v>
+        <v>160.4117255191474</v>
       </c>
       <c r="C37" t="n">
-        <v>165.671778288959</v>
+        <v>141.3473873889575</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>134.7305058578427</v>
       </c>
       <c r="E37" t="n">
-        <v>162.8961075991218</v>
+        <v>133.0527613603766</v>
       </c>
       <c r="F37" t="n">
-        <v>169.775667385213</v>
+        <v>145.4512764852115</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>125.8563039018289</v>
+        <v>101.5319130018274</v>
       </c>
       <c r="I37" t="n">
-        <v>57.30001758546604</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>137.8179569981595</v>
+        <v>113.493566098158</v>
       </c>
       <c r="T37" t="n">
-        <v>234.6604357429791</v>
+        <v>210.3360448429776</v>
       </c>
       <c r="U37" t="n">
-        <v>270.438449519096</v>
+        <v>246.1140586190946</v>
       </c>
       <c r="V37" t="n">
-        <v>278.9216369356255</v>
+        <v>254.597246035624</v>
       </c>
       <c r="W37" t="n">
-        <v>264.141824256923</v>
+        <v>239.8174333569216</v>
       </c>
       <c r="X37" t="n">
-        <v>237.7735210072733</v>
+        <v>213.4491301072718</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>195.656766966383</v>
       </c>
     </row>
     <row r="38">
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>404.2723410757611</v>
       </c>
       <c r="D38" t="n">
-        <v>426.3863708646516</v>
+        <v>402.06197996465</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>405.9707700473305</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>390.3433482946692</v>
+        <v>366.0189573946677</v>
       </c>
       <c r="H38" t="n">
-        <v>261.8600198288803</v>
+        <v>237.5356289288788</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3559,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>226.9912775510514</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>395.6425839304287</v>
+        <v>371.3181930304272</v>
       </c>
       <c r="X38" t="n">
-        <v>409.786722673834</v>
+        <v>281.7914376943578</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>184.7361164191489</v>
+        <v>160.4117255191474</v>
       </c>
       <c r="C40" t="n">
-        <v>165.671778288959</v>
+        <v>141.3473873889575</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>134.7305058578427</v>
       </c>
       <c r="E40" t="n">
-        <v>162.8961075991218</v>
+        <v>138.5717166991203</v>
       </c>
       <c r="F40" t="n">
-        <v>169.775667385213</v>
+        <v>145.4512764852115</v>
       </c>
       <c r="G40" t="n">
-        <v>157.9294524709584</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>125.8563039018289</v>
+        <v>96.01295766308377</v>
       </c>
       <c r="I40" t="n">
-        <v>57.30001758546609</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>113.493566098158</v>
       </c>
       <c r="T40" t="n">
-        <v>234.6604357429791</v>
+        <v>210.3360448429776</v>
       </c>
       <c r="U40" t="n">
-        <v>270.4384495190961</v>
+        <v>246.1140586190946</v>
       </c>
       <c r="V40" t="n">
-        <v>278.9216369356255</v>
+        <v>254.597246035624</v>
       </c>
       <c r="W40" t="n">
-        <v>264.141824256923</v>
+        <v>239.8174333569216</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>213.4491301072718</v>
       </c>
       <c r="Y40" t="n">
-        <v>217.6620255344741</v>
+        <v>195.656766966383</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>196.40656643247</v>
+        <v>392.5478677674088</v>
       </c>
       <c r="C41" t="n">
-        <v>428.5967319757626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>426.3863708646516</v>
+        <v>402.06197996465</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>399.9482903806379</v>
       </c>
       <c r="F41" t="n">
-        <v>418.424439182236</v>
+        <v>394.1000482822345</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>261.8600198288803</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>204.4892229029305</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.8264644528634</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>315.8692974710306</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.4623317738325</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>184.7361164191489</v>
+        <v>160.4117255191474</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>141.3473873889575</v>
       </c>
       <c r="D43" t="n">
-        <v>51.9029922085389</v>
+        <v>64.16277526450578</v>
       </c>
       <c r="E43" t="n">
-        <v>162.8961075991218</v>
+        <v>138.5717166991203</v>
       </c>
       <c r="F43" t="n">
-        <v>169.775667385213</v>
+        <v>145.4512764852115</v>
       </c>
       <c r="G43" t="n">
-        <v>157.9294524709584</v>
+        <v>133.6050615709569</v>
       </c>
       <c r="H43" t="n">
-        <v>125.8563039018289</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>57.30001758546609</v>
+        <v>32.97562668546459</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>137.8179569981595</v>
+        <v>113.493566098158</v>
       </c>
       <c r="T43" t="n">
-        <v>234.6604357429791</v>
+        <v>210.3360448429776</v>
       </c>
       <c r="U43" t="n">
-        <v>270.4384495190961</v>
+        <v>246.1140586190946</v>
       </c>
       <c r="V43" t="n">
-        <v>278.9216369356255</v>
+        <v>254.597246035624</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>239.8174333569216</v>
       </c>
       <c r="X43" t="n">
-        <v>237.7735210072733</v>
+        <v>213.4491301072718</v>
       </c>
       <c r="Y43" t="n">
-        <v>219.9811578663845</v>
+        <v>195.656766966383</v>
       </c>
     </row>
     <row r="44">
@@ -3976,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>412.6583329727556</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>424.3828062811078</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>422.1724451699968</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>420.0587555859847</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>414.2105134875812</v>
       </c>
       <c r="G44" t="n">
-        <v>26.89631059525929</v>
+        <v>165.8234978623205</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>30.68346428004789</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>180.5221907244941</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>161.4578525943042</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>158.682181904467</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>165.5617416905582</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>90.04628567480619</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>53.08609189081133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>103.432083453623</v>
+        <v>230.4465100483243</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6027656317444</v>
+        <v>266.2245238244413</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>274.7077112409708</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>259.9278985622683</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>233.5595953126185</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>215.7672321717297</v>
       </c>
     </row>
   </sheetData>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1536.32965943808</v>
+        <v>1548.958133896014</v>
       </c>
       <c r="C11" t="n">
-        <v>1178.570277437541</v>
+        <v>1110.815661079438</v>
       </c>
       <c r="D11" t="n">
-        <v>1178.570277437541</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="E11" t="n">
-        <v>744.7955325958366</v>
+        <v>874.5766724602698</v>
       </c>
       <c r="F11" t="n">
-        <v>316.9281030050443</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G11" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435807</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867019</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q11" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R11" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447737</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="W11" t="n">
-        <v>1955.47212285877</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="X11" t="n">
-        <v>1536.32965943808</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="Y11" t="n">
-        <v>1536.32965943808</v>
+        <v>1548.958133896014</v>
       </c>
     </row>
     <row r="12">
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495866</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765403</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927019</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235849</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043085</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960907</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987882</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
@@ -5141,16 +5141,16 @@
         <v>1488.088567599445</v>
       </c>
       <c r="Q12" t="n">
-        <v>1614.947661807679</v>
+        <v>1614.94766180768</v>
       </c>
       <c r="R12" t="n">
-        <v>1676.651116233592</v>
+        <v>1676.651116233593</v>
       </c>
       <c r="S12" t="n">
-        <v>1632.030085633326</v>
+        <v>1632.030085633327</v>
       </c>
       <c r="T12" t="n">
-        <v>1505.938530508979</v>
+        <v>1505.93853050898</v>
       </c>
       <c r="U12" t="n">
         <v>1329.66869333286</v>
@@ -5159,13 +5159,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W12" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X12" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y12" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>471.6552262893761</v>
+        <v>616.0817647851425</v>
       </c>
       <c r="C13" t="n">
-        <v>393.6716093364613</v>
+        <v>443.5200532683674</v>
       </c>
       <c r="D13" t="n">
-        <v>393.6716093364613</v>
+        <v>277.6420604698901</v>
       </c>
       <c r="E13" t="n">
-        <v>223.9136055871985</v>
+        <v>277.6420604698901</v>
       </c>
       <c r="F13" t="n">
-        <v>47.20655154895473</v>
+        <v>100.9350064316463</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>286.0939365717313</v>
+        <v>564.2504555545215</v>
       </c>
       <c r="L13" t="n">
-        <v>828.1746199579902</v>
+        <v>1106.331138940781</v>
       </c>
       <c r="M13" t="n">
-        <v>1412.355695376305</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N13" t="n">
-        <v>1539.854607180195</v>
+        <v>1364.4344430832</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q13" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R13" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T13" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351144</v>
       </c>
       <c r="U13" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399887</v>
       </c>
       <c r="V13" t="n">
-        <v>1408.311674774551</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W13" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X13" t="n">
-        <v>890.893515694255</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y13" t="n">
-        <v>663.4738450083632</v>
+        <v>807.9003835041296</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1173.712709371907</v>
+        <v>1115.578135682198</v>
       </c>
       <c r="C14" t="n">
-        <v>1173.712709371907</v>
+        <v>1115.578135682198</v>
       </c>
       <c r="D14" t="n">
-        <v>1173.712709371907</v>
+        <v>1115.578135682198</v>
       </c>
       <c r="E14" t="n">
-        <v>739.9379645302024</v>
+        <v>1115.578135682198</v>
       </c>
       <c r="F14" t="n">
-        <v>312.0705349394102</v>
+        <v>697.2840688361263</v>
       </c>
       <c r="G14" t="n">
-        <v>312.0705349394102</v>
+        <v>307.3547402603239</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867029</v>
       </c>
       <c r="M14" t="n">
         <v>1131.58869045549</v>
@@ -5299,7 +5299,7 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q14" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R14" t="n">
         <v>2360.327577447737</v>
@@ -5308,22 +5308,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2158.12968866157</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>1908.632359927804</v>
       </c>
       <c r="V14" t="n">
-        <v>1997.710627381563</v>
+        <v>1908.632359927804</v>
       </c>
       <c r="W14" t="n">
-        <v>1592.855172792597</v>
+        <v>1908.632359927804</v>
       </c>
       <c r="X14" t="n">
-        <v>1173.712709371907</v>
+        <v>1514.290896637824</v>
       </c>
       <c r="Y14" t="n">
-        <v>1173.712709371907</v>
+        <v>1115.578135682198</v>
       </c>
     </row>
     <row r="15">
@@ -5351,7 +5351,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I15" t="n">
         <v>81.42328772043086</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>663.4738450083642</v>
+        <v>688.8010393110508</v>
       </c>
       <c r="C16" t="n">
-        <v>490.9121334915891</v>
+        <v>525.8126905389961</v>
       </c>
       <c r="D16" t="n">
-        <v>490.9121334915891</v>
+        <v>369.5080604852392</v>
       </c>
       <c r="E16" t="n">
-        <v>321.1541297423263</v>
+        <v>369.5080604852392</v>
       </c>
       <c r="F16" t="n">
-        <v>321.1541297423263</v>
+        <v>202.3743691917159</v>
       </c>
       <c r="G16" t="n">
-        <v>156.4129493548448</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J16" t="n">
-        <v>192.6919004158277</v>
+        <v>202.0747532419282</v>
       </c>
       <c r="K16" t="n">
-        <v>564.2504555545214</v>
+        <v>583.0161612067226</v>
       </c>
       <c r="L16" t="n">
-        <v>688.1212571728194</v>
+        <v>1134.479697419082</v>
       </c>
       <c r="M16" t="n">
-        <v>1272.302332591134</v>
+        <v>1365.441431245803</v>
       </c>
       <c r="N16" t="n">
-        <v>1399.801244395024</v>
+        <v>1502.323195875793</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527957</v>
+        <v>1629.471930049655</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675982</v>
+        <v>2087.130733023781</v>
       </c>
       <c r="Q16" t="n">
-        <v>2343.856484770969</v>
+        <v>2334.473631944869</v>
       </c>
       <c r="R16" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951972</v>
+        <v>2225.474401696692</v>
       </c>
       <c r="T16" t="n">
-        <v>1973.653814855378</v>
+        <v>1992.800540344819</v>
       </c>
       <c r="U16" t="n">
-        <v>1695.267182904121</v>
+        <v>1723.987271138283</v>
       </c>
       <c r="V16" t="n">
-        <v>1408.311674774552</v>
+        <v>1587.164036817344</v>
       </c>
       <c r="W16" t="n">
-        <v>1136.285270360843</v>
+        <v>1324.710995148356</v>
       </c>
       <c r="X16" t="n">
-        <v>890.8935156942559</v>
+        <v>1088.892603226489</v>
       </c>
       <c r="Y16" t="n">
-        <v>663.4738450083642</v>
+        <v>871.0462952853175</v>
       </c>
     </row>
     <row r="17">
@@ -5491,43 +5491,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1525.741883262483</v>
+        <v>855.429946970829</v>
       </c>
       <c r="C17" t="n">
-        <v>1525.741883262483</v>
+        <v>855.429946970829</v>
       </c>
       <c r="D17" t="n">
-        <v>1144.298223916359</v>
+        <v>855.429946970829</v>
       </c>
       <c r="E17" t="n">
-        <v>1144.298223916359</v>
+        <v>855.429946970829</v>
       </c>
       <c r="F17" t="n">
-        <v>716.4307943255671</v>
+        <v>437.1358801247571</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435814</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228024</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286703</v>
       </c>
       <c r="M17" t="n">
         <v>1131.58869045549</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431968</v>
       </c>
       <c r="O17" t="n">
         <v>1775.96950697326</v>
@@ -5536,7 +5536,7 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q17" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R17" t="n">
         <v>2360.327577447737</v>
@@ -5554,13 +5554,13 @@
         <v>2360.327577447737</v>
       </c>
       <c r="W17" t="n">
-        <v>2360.327577447737</v>
+        <v>1965.045485603491</v>
       </c>
       <c r="X17" t="n">
-        <v>2360.327577447737</v>
+        <v>1555.476384927522</v>
       </c>
       <c r="Y17" t="n">
-        <v>1952.04145374739</v>
+        <v>1156.763623971896</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>1119.791305117178</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E18" t="n">
-        <v>930.5806015906853</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F18" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G18" t="n">
-        <v>762.8256627965038</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H18" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I18" t="n">
-        <v>765.0997489345757</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J18" t="n">
-        <v>858.9930882810428</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K18" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M18" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N18" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P18" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q18" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R18" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S18" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T18" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U18" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V18" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W18" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X18" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y18" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>471.655226289377</v>
+        <v>548.2421282471405</v>
       </c>
       <c r="C19" t="n">
-        <v>471.655226289377</v>
+        <v>385.2537794750859</v>
       </c>
       <c r="D19" t="n">
-        <v>471.655226289377</v>
+        <v>374.5248838470204</v>
       </c>
       <c r="E19" t="n">
-        <v>301.8972225401143</v>
+        <v>214.3402428424781</v>
       </c>
       <c r="F19" t="n">
-        <v>125.1901685018705</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J19" t="n">
-        <v>192.6919004158277</v>
+        <v>115.4950680772384</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545214</v>
+        <v>496.4364760420327</v>
       </c>
       <c r="L19" t="n">
-        <v>688.1212571728194</v>
+        <v>1047.900012254392</v>
       </c>
       <c r="M19" t="n">
-        <v>1272.302332591134</v>
+        <v>1187.887257419022</v>
       </c>
       <c r="N19" t="n">
-        <v>1399.801244395024</v>
+        <v>1324.769022049012</v>
       </c>
       <c r="O19" t="n">
-        <v>1657.620488527957</v>
+        <v>1871.587005448656</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675982</v>
+        <v>2255.323507888113</v>
       </c>
       <c r="Q19" t="n">
-        <v>2343.856484770969</v>
+        <v>2334.473631944869</v>
       </c>
       <c r="R19" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2215.901038951972</v>
+        <v>2225.474401696692</v>
       </c>
       <c r="T19" t="n">
-        <v>1973.653814855378</v>
+        <v>1992.800540344819</v>
       </c>
       <c r="U19" t="n">
-        <v>1695.267182904121</v>
+        <v>1723.987271138283</v>
       </c>
       <c r="V19" t="n">
-        <v>1408.311674774552</v>
+        <v>1446.605125753434</v>
       </c>
       <c r="W19" t="n">
-        <v>1136.285270360843</v>
+        <v>1184.152084084446</v>
       </c>
       <c r="X19" t="n">
-        <v>890.8935156942559</v>
+        <v>948.3336921625785</v>
       </c>
       <c r="Y19" t="n">
-        <v>663.4738450083642</v>
+        <v>730.4873842214072</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>821.6907359863703</v>
+        <v>1320.406150547718</v>
       </c>
       <c r="C20" t="n">
-        <v>821.6907359863703</v>
+        <v>891.8370404758616</v>
       </c>
       <c r="D20" t="n">
-        <v>821.6907359863703</v>
+        <v>465.5006183950265</v>
       </c>
       <c r="E20" t="n">
-        <v>417.3126170070715</v>
+        <v>465.5006183950265</v>
       </c>
       <c r="F20" t="n">
-        <v>417.3126170070715</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L20" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2329.434570407254</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2329.434570407254</v>
       </c>
       <c r="U20" t="n">
-        <v>2130.653511831656</v>
+        <v>2146.701458963874</v>
       </c>
       <c r="V20" t="n">
-        <v>2130.653511831656</v>
+        <v>2146.701458963874</v>
       </c>
       <c r="W20" t="n">
-        <v>1755.194683105096</v>
+        <v>2146.701458963874</v>
       </c>
       <c r="X20" t="n">
-        <v>1365.448845546813</v>
+        <v>1737.132358287905</v>
       </c>
       <c r="Y20" t="n">
-        <v>986.5593477088721</v>
+        <v>1737.132358287905</v>
       </c>
     </row>
     <row r="21">
@@ -5807,40 +5807,40 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>542.5713050663908</v>
+        <v>542.571305066391</v>
       </c>
       <c r="C21" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030333</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495865</v>
       </c>
       <c r="E21" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765402</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927018</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M21" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
@@ -5870,13 +5870,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W21" t="n">
-        <v>945.2284211280532</v>
+        <v>945.2284211280535</v>
       </c>
       <c r="X21" t="n">
-        <v>790.3609853669332</v>
+        <v>790.3609853669334</v>
       </c>
       <c r="Y21" t="n">
-        <v>663.8752061461539</v>
+        <v>663.8752061461541</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>886.5154601867889</v>
+        <v>766.0884361883113</v>
       </c>
       <c r="C22" t="n">
-        <v>743.3503745324199</v>
+        <v>603.1000874162567</v>
       </c>
       <c r="D22" t="n">
-        <v>606.8690075963486</v>
+        <v>603.1000874162567</v>
       </c>
       <c r="E22" t="n">
-        <v>466.5076297094919</v>
+        <v>442.9154464117144</v>
       </c>
       <c r="F22" t="n">
-        <v>319.1972015336542</v>
+        <v>275.781755118191</v>
       </c>
       <c r="G22" t="n">
-        <v>183.8526470085786</v>
+        <v>120.6139374754299</v>
       </c>
       <c r="H22" t="n">
-        <v>80.90521225030061</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J22" t="n">
-        <v>221.5035334235719</v>
+        <v>115.4950680772384</v>
       </c>
       <c r="K22" t="n">
-        <v>347.1152669988742</v>
+        <v>496.4364760420327</v>
       </c>
       <c r="L22" t="n">
-        <v>918.0075833928775</v>
+        <v>783.1953829235277</v>
       </c>
       <c r="M22" t="n">
-        <v>1268.297530337584</v>
+        <v>923.1826280881577</v>
       </c>
       <c r="N22" t="n">
-        <v>1424.608075149217</v>
+        <v>1502.323195875792</v>
       </c>
       <c r="O22" t="n">
-        <v>1571.185589504724</v>
+        <v>1629.471930049655</v>
       </c>
       <c r="P22" t="n">
-        <v>2048.273172660493</v>
+        <v>2087.130733023781</v>
       </c>
       <c r="Q22" t="n">
-        <v>2315.044851763225</v>
+        <v>2334.473631944869</v>
       </c>
       <c r="R22" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2245.297664814377</v>
+        <v>2225.474401696692</v>
       </c>
       <c r="T22" t="n">
-        <v>2032.44706658019</v>
+        <v>1992.800540344819</v>
       </c>
       <c r="U22" t="n">
-        <v>1783.457060491339</v>
+        <v>1723.987271138282</v>
       </c>
       <c r="V22" t="n">
-        <v>1705.585405222339</v>
+        <v>1446.605125753433</v>
       </c>
       <c r="W22" t="n">
-        <v>1462.955626671037</v>
+        <v>1184.152084084445</v>
       </c>
       <c r="X22" t="n">
-        <v>1246.960497866856</v>
+        <v>948.333692162578</v>
       </c>
       <c r="Y22" t="n">
-        <v>1048.93745304337</v>
+        <v>948.333692162578</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>451.5846705282535</v>
+        <v>1976.390983085802</v>
       </c>
       <c r="C23" t="n">
-        <v>451.5846705282535</v>
+        <v>1547.821873013946</v>
       </c>
       <c r="D23" t="n">
-        <v>451.5846705282535</v>
+        <v>1121.485450933111</v>
       </c>
       <c r="E23" t="n">
-        <v>47.20655154895473</v>
+        <v>697.2840688361263</v>
       </c>
       <c r="F23" t="n">
-        <v>47.20655154895473</v>
+        <v>697.2840688361263</v>
       </c>
       <c r="G23" t="n">
-        <v>47.20655154895473</v>
+        <v>307.3547402603239</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435814</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228024</v>
       </c>
       <c r="L23" t="n">
-        <v>805.440802286702</v>
+        <v>805.440802286703</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431968</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q23" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R23" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2329.434570407255</v>
       </c>
       <c r="T23" t="n">
-        <v>2177.952951779255</v>
+        <v>2329.434570407255</v>
       </c>
       <c r="U23" t="n">
-        <v>1948.278886163175</v>
+        <v>2329.434570407255</v>
       </c>
       <c r="V23" t="n">
-        <v>1615.058561959407</v>
+        <v>1976.390983085802</v>
       </c>
       <c r="W23" t="n">
-        <v>1615.058561959407</v>
+        <v>1976.390983085802</v>
       </c>
       <c r="X23" t="n">
-        <v>1227.377112988696</v>
+        <v>1976.390983085802</v>
       </c>
       <c r="Y23" t="n">
-        <v>848.4876151507552</v>
+        <v>1976.390983085802</v>
       </c>
     </row>
     <row r="24">
@@ -6047,25 +6047,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D24" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E24" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F24" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G24" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>706.8282331886246</v>
+        <v>811.5717371870144</v>
       </c>
       <c r="C25" t="n">
-        <v>563.6631475342556</v>
+        <v>648.5833884149597</v>
       </c>
       <c r="D25" t="n">
-        <v>427.1817805981843</v>
+        <v>492.2787583612028</v>
       </c>
       <c r="E25" t="n">
-        <v>363.5601949512139</v>
+        <v>492.2787583612028</v>
       </c>
       <c r="F25" t="n">
-        <v>216.2497667753761</v>
+        <v>325.1450670676795</v>
       </c>
       <c r="G25" t="n">
-        <v>80.90521225030061</v>
+        <v>169.9772494249184</v>
       </c>
       <c r="H25" t="n">
-        <v>80.90521225030061</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J25" t="n">
-        <v>134.923848258882</v>
+        <v>202.0747532419282</v>
       </c>
       <c r="K25" t="n">
-        <v>535.2940364053201</v>
+        <v>583.0161612067226</v>
       </c>
       <c r="L25" t="n">
-        <v>687.9764710313622</v>
+        <v>1134.479697419082</v>
       </c>
       <c r="M25" t="n">
-        <v>847.3924963776358</v>
+        <v>1365.441431245803</v>
       </c>
       <c r="N25" t="n">
-        <v>1424.608075149217</v>
+        <v>1502.323195875793</v>
       </c>
       <c r="O25" t="n">
-        <v>1571.185589504724</v>
+        <v>1629.471930049655</v>
       </c>
       <c r="P25" t="n">
-        <v>2048.273172660493</v>
+        <v>2087.130733023781</v>
       </c>
       <c r="Q25" t="n">
-        <v>2315.044851763225</v>
+        <v>2334.473631944869</v>
       </c>
       <c r="R25" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S25" t="n">
-        <v>2245.297664814377</v>
+        <v>2225.474401696692</v>
       </c>
       <c r="T25" t="n">
-        <v>2032.44706658019</v>
+        <v>1992.800540344819</v>
       </c>
       <c r="U25" t="n">
-        <v>1783.457060491339</v>
+        <v>1723.987271138283</v>
       </c>
       <c r="V25" t="n">
-        <v>1525.898178224175</v>
+        <v>1709.934734693307</v>
       </c>
       <c r="W25" t="n">
-        <v>1283.268399672873</v>
+        <v>1447.481693024319</v>
       </c>
       <c r="X25" t="n">
-        <v>1067.273270868691</v>
+        <v>1211.663301102452</v>
       </c>
       <c r="Y25" t="n">
-        <v>869.2502260452056</v>
+        <v>993.8169931612811</v>
       </c>
     </row>
     <row r="26">
@@ -6202,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1266.843676445574</v>
+        <v>1482.457261043076</v>
       </c>
       <c r="C26" t="n">
-        <v>858.097829491403</v>
+        <v>1482.457261043076</v>
       </c>
       <c r="D26" t="n">
-        <v>451.5846705282535</v>
+        <v>1482.457261043076</v>
       </c>
       <c r="E26" t="n">
-        <v>47.20655154895474</v>
+        <v>1115.578135682198</v>
       </c>
       <c r="F26" t="n">
-        <v>47.20655154895474</v>
+        <v>697.2840688361263</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895474</v>
+        <v>307.3547402603239</v>
       </c>
       <c r="H26" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I26" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J26" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867026</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M26" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N26" t="n">
         <v>1463.013992431967</v>
@@ -6244,34 +6244,34 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P26" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q26" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R26" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2349.25783352494</v>
+        <v>2329.434570407255</v>
       </c>
       <c r="T26" t="n">
-        <v>2166.883207856458</v>
+        <v>2127.236681621087</v>
       </c>
       <c r="U26" t="n">
-        <v>2166.883207856458</v>
+        <v>1877.739352887322</v>
       </c>
       <c r="V26" t="n">
-        <v>1833.662883652691</v>
+        <v>1877.739352887322</v>
       </c>
       <c r="W26" t="n">
-        <v>1833.662883652691</v>
+        <v>1482.457261043076</v>
       </c>
       <c r="X26" t="n">
-        <v>1645.733174283514</v>
+        <v>1482.457261043076</v>
       </c>
       <c r="Y26" t="n">
-        <v>1266.843676445574</v>
+        <v>1482.457261043076</v>
       </c>
     </row>
     <row r="27">
@@ -6299,7 +6299,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H27" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I27" t="n">
         <v>81.42328772043086</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>706.8282331886251</v>
+        <v>948.3336921625785</v>
       </c>
       <c r="C28" t="n">
-        <v>563.663147534256</v>
+        <v>862.2899532385336</v>
       </c>
       <c r="D28" t="n">
-        <v>427.1817805981848</v>
+        <v>705.9853231847767</v>
       </c>
       <c r="E28" t="n">
-        <v>329.861534249868</v>
+        <v>545.8006821802344</v>
       </c>
       <c r="F28" t="n">
-        <v>182.5511060740303</v>
+        <v>378.666990886711</v>
       </c>
       <c r="G28" t="n">
-        <v>47.20655154895474</v>
+        <v>223.4991732439499</v>
       </c>
       <c r="H28" t="n">
-        <v>47.20655154895474</v>
+        <v>100.7284753679862</v>
       </c>
       <c r="I28" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J28" t="n">
-        <v>134.9238482588821</v>
+        <v>202.0747532419282</v>
       </c>
       <c r="K28" t="n">
-        <v>260.5355818341845</v>
+        <v>583.0161612067226</v>
       </c>
       <c r="L28" t="n">
-        <v>413.2180164602266</v>
+        <v>716.269815651121</v>
       </c>
       <c r="M28" t="n">
-        <v>997.3990918785414</v>
+        <v>856.2570608157509</v>
       </c>
       <c r="N28" t="n">
-        <v>1581.580167296856</v>
+        <v>1082.653946650011</v>
       </c>
       <c r="O28" t="n">
-        <v>2086.885258339398</v>
+        <v>1629.471930049655</v>
       </c>
       <c r="P28" t="n">
-        <v>2216.465947524825</v>
+        <v>2087.130733023781</v>
       </c>
       <c r="Q28" t="n">
-        <v>2315.044851763225</v>
+        <v>2334.473631944869</v>
       </c>
       <c r="R28" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S28" t="n">
-        <v>2245.297664814378</v>
+        <v>2225.474401696692</v>
       </c>
       <c r="T28" t="n">
-        <v>2032.44706658019</v>
+        <v>1992.800540344819</v>
       </c>
       <c r="U28" t="n">
-        <v>1783.457060491339</v>
+        <v>1723.987271138283</v>
       </c>
       <c r="V28" t="n">
-        <v>1525.898178224176</v>
+        <v>1446.605125753434</v>
       </c>
       <c r="W28" t="n">
-        <v>1283.268399672873</v>
+        <v>1184.152084084446</v>
       </c>
       <c r="X28" t="n">
-        <v>1067.273270868692</v>
+        <v>948.3336921625785</v>
       </c>
       <c r="Y28" t="n">
-        <v>869.2502260452061</v>
+        <v>948.3336921625785</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1208.943220285212</v>
+        <v>1167.54022349436</v>
       </c>
       <c r="C29" t="n">
-        <v>841.7575523967564</v>
+        <v>876.2638787811711</v>
       </c>
       <c r="D29" t="n">
-        <v>440.4608743554739</v>
+        <v>460.6676951731376</v>
       </c>
       <c r="E29" t="n">
-        <v>440.4608743554739</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="F29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N29" t="n">
         <v>1463.013992431967</v>
@@ -6484,31 +6484,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q29" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R29" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2354.474314446807</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T29" t="n">
-        <v>2177.316169700192</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U29" t="n">
-        <v>1952.858585005979</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V29" t="n">
-        <v>1952.858585005979</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W29" t="n">
-        <v>1582.616237201286</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X29" t="n">
-        <v>1582.616237201286</v>
+        <v>1961.49871524457</v>
       </c>
       <c r="Y29" t="n">
-        <v>1208.943220285212</v>
+        <v>1573.526192761746</v>
       </c>
     </row>
     <row r="30">
@@ -6536,7 +6536,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I30" t="n">
         <v>81.42328772043086</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>850.0000937337196</v>
+        <v>805.6690535310177</v>
       </c>
       <c r="C31" t="n">
-        <v>712.0514890012176</v>
+        <v>653.4209432317646</v>
       </c>
       <c r="D31" t="n">
-        <v>580.7866029870135</v>
+        <v>507.8565516508093</v>
       </c>
       <c r="E31" t="n">
-        <v>445.6417060220238</v>
+        <v>358.4121491190685</v>
       </c>
       <c r="F31" t="n">
-        <v>303.5477587680531</v>
+        <v>202.0186962983469</v>
       </c>
       <c r="G31" t="n">
-        <v>173.4196851648446</v>
+        <v>202.0186962983469</v>
       </c>
       <c r="H31" t="n">
-        <v>75.68873132843362</v>
+        <v>89.98823689518474</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J31" t="n">
-        <v>226.6162063750938</v>
+        <v>212.601260969121</v>
       </c>
       <c r="K31" t="n">
-        <v>632.0990674730535</v>
+        <v>604.069176661108</v>
       </c>
       <c r="L31" t="n">
-        <v>789.8941750506175</v>
+        <v>1162.295139718017</v>
       </c>
       <c r="M31" t="n">
-        <v>954.4228733484131</v>
+        <v>1312.80889260984</v>
       </c>
       <c r="N31" t="n">
-        <v>1404.157383343131</v>
+        <v>1460.217164967023</v>
       </c>
       <c r="O31" t="n">
-        <v>1555.847570650159</v>
+        <v>1597.892406868078</v>
       </c>
       <c r="P31" t="n">
-        <v>2038.04782675745</v>
+        <v>2066.077717569396</v>
       </c>
       <c r="Q31" t="n">
-        <v>2309.932178811704</v>
+        <v>2323.947124217677</v>
       </c>
       <c r="R31" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2250.514145736245</v>
+        <v>2236.214640169494</v>
       </c>
       <c r="T31" t="n">
-        <v>2144.320041594082</v>
+        <v>2014.281017290423</v>
       </c>
       <c r="U31" t="n">
-        <v>1900.546516427099</v>
+        <v>1756.207986556687</v>
       </c>
       <c r="V31" t="n">
-        <v>1648.204115081802</v>
+        <v>1489.56607964464</v>
       </c>
       <c r="W31" t="n">
-        <v>1410.790817452367</v>
+        <v>1237.853276448453</v>
       </c>
       <c r="X31" t="n">
-        <v>1200.012169570052</v>
+        <v>1012.775122999387</v>
       </c>
       <c r="Y31" t="n">
-        <v>1007.205605668434</v>
+        <v>805.6690535310177</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1251.194233679973</v>
+        <v>1663.754692663382</v>
       </c>
       <c r="C32" t="n">
-        <v>847.6648676476689</v>
+        <v>1255.398792586856</v>
       </c>
       <c r="D32" t="n">
-        <v>446.3681896063865</v>
+        <v>849.2755805013511</v>
       </c>
       <c r="E32" t="n">
-        <v>47.20655154895473</v>
+        <v>445.2874083996966</v>
       </c>
       <c r="F32" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G32" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867021</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M32" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N32" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O32" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P32" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q32" t="n">
         <v>2243.650993163596</v>
@@ -6730,22 +6730,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T32" t="n">
-        <v>2219.567183094953</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U32" t="n">
-        <v>1995.10959840074</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V32" t="n">
-        <v>1995.10959840074</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W32" t="n">
-        <v>1624.867250596046</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X32" t="n">
-        <v>1624.867250596046</v>
+        <v>2060.26769040824</v>
       </c>
       <c r="Y32" t="n">
-        <v>1251.194233679973</v>
+        <v>2060.26769040824</v>
       </c>
     </row>
     <row r="33">
@@ -6758,25 +6758,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D33" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E33" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G33" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J33" t="n">
         <v>175.316627066898</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>850.0000937337196</v>
+        <v>883.7858320432789</v>
       </c>
       <c r="C34" t="n">
-        <v>712.0514890012176</v>
+        <v>741.0106932665542</v>
       </c>
       <c r="D34" t="n">
-        <v>580.7866029870135</v>
+        <v>604.9192732081273</v>
       </c>
       <c r="E34" t="n">
-        <v>445.6417060220238</v>
+        <v>464.9478421989148</v>
       </c>
       <c r="F34" t="n">
-        <v>303.5477587680531</v>
+        <v>318.0273609007214</v>
       </c>
       <c r="G34" t="n">
-        <v>173.4196851648446</v>
+        <v>183.0727532532901</v>
       </c>
       <c r="H34" t="n">
-        <v>75.6887313284336</v>
+        <v>80.51526537265636</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J34" t="n">
-        <v>226.6162063750937</v>
+        <v>221.8857203583511</v>
       </c>
       <c r="K34" t="n">
-        <v>425.5070188992786</v>
+        <v>622.6380954395681</v>
       </c>
       <c r="L34" t="n">
-        <v>583.3021264768425</v>
+        <v>1106.588383382636</v>
       </c>
       <c r="M34" t="n">
-        <v>1167.483201895157</v>
+        <v>1266.386595663688</v>
       </c>
       <c r="N34" t="n">
-        <v>1751.664277313472</v>
+        <v>1423.079327410101</v>
       </c>
       <c r="O34" t="n">
-        <v>1903.3544646205</v>
+        <v>1570.039028700386</v>
       </c>
       <c r="P34" t="n">
-        <v>2038.047826757449</v>
+        <v>2047.508798790935</v>
       </c>
       <c r="Q34" t="n">
-        <v>2309.932178811703</v>
+        <v>2314.662664828446</v>
       </c>
       <c r="R34" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2250.514145736244</v>
+        <v>2245.687611692022</v>
       </c>
       <c r="T34" t="n">
-        <v>2042.880028423924</v>
+        <v>2207.064984168978</v>
       </c>
       <c r="U34" t="n">
-        <v>1799.10650325694</v>
+        <v>1958.464924957772</v>
       </c>
       <c r="V34" t="n">
-        <v>1648.204115081802</v>
+        <v>1701.295989568252</v>
       </c>
       <c r="W34" t="n">
-        <v>1410.790817452367</v>
+        <v>1459.056157894594</v>
       </c>
       <c r="X34" t="n">
-        <v>1200.012169570052</v>
+        <v>1243.450975968057</v>
       </c>
       <c r="Y34" t="n">
-        <v>1007.205605668434</v>
+        <v>1045.817878022216</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>906.458119372481</v>
+        <v>1595.902804918181</v>
       </c>
       <c r="C35" t="n">
-        <v>906.458119372481</v>
+        <v>1595.902804918181</v>
       </c>
       <c r="D35" t="n">
-        <v>475.7648154687926</v>
+        <v>1189.779592832676</v>
       </c>
       <c r="E35" t="n">
-        <v>47.20655154895474</v>
+        <v>785.7914207310214</v>
       </c>
       <c r="F35" t="n">
-        <v>47.20655154895474</v>
+        <v>387.7105638802795</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
         <v>1463.013992431967</v>
@@ -6955,7 +6955,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q35" t="n">
         <v>2243.650993163596</v>
@@ -6973,16 +6973,16 @@
         <v>2360.327577447737</v>
       </c>
       <c r="V35" t="n">
-        <v>2002.92710830343</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W35" t="n">
-        <v>2002.92710830343</v>
+        <v>1985.25869559882</v>
       </c>
       <c r="X35" t="n">
-        <v>1589.001125804608</v>
+        <v>1595.902804918181</v>
       </c>
       <c r="Y35" t="n">
-        <v>1185.931483026128</v>
+        <v>1595.902804918181</v>
       </c>
     </row>
     <row r="36">
@@ -6995,22 +6995,22 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E36" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I36" t="n">
         <v>81.42328772043086</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>735.5902634283375</v>
+        <v>709.9478082097787</v>
       </c>
       <c r="C37" t="n">
-        <v>568.2450328334294</v>
+        <v>567.172669433054</v>
       </c>
       <c r="D37" t="n">
-        <v>568.2450328334294</v>
+        <v>431.081249374627</v>
       </c>
       <c r="E37" t="n">
-        <v>403.7035100060336</v>
+        <v>296.6845207277819</v>
       </c>
       <c r="F37" t="n">
-        <v>232.2129368896568</v>
+        <v>149.7640394295885</v>
       </c>
       <c r="G37" t="n">
-        <v>232.2129368896568</v>
+        <v>149.7640394295885</v>
       </c>
       <c r="H37" t="n">
-        <v>105.0853571908396</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
-        <v>197.8045733673496</v>
+        <v>221.885720358351</v>
       </c>
       <c r="K37" t="n">
-        <v>574.4758014575654</v>
+        <v>622.6380954395681</v>
       </c>
       <c r="L37" t="n">
-        <v>831.4060161028634</v>
+        <v>1106.588383382635</v>
       </c>
       <c r="M37" t="n">
-        <v>967.1230813929147</v>
+        <v>1266.386595663688</v>
       </c>
       <c r="N37" t="n">
-        <v>1099.734666148326</v>
+        <v>1423.079327410101</v>
       </c>
       <c r="O37" t="n">
-        <v>1642.282469673391</v>
+        <v>1570.039028700386</v>
       </c>
       <c r="P37" t="n">
-        <v>2095.671092772938</v>
+        <v>2047.508798790934</v>
       </c>
       <c r="Q37" t="n">
-        <v>2338.743811819448</v>
+        <v>2314.662664828446</v>
       </c>
       <c r="R37" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2221.117519873838</v>
+        <v>2245.687611692021</v>
       </c>
       <c r="T37" t="n">
-        <v>1984.086776699112</v>
+        <v>2033.226960335478</v>
       </c>
       <c r="U37" t="n">
-        <v>1710.916625669722</v>
+        <v>1784.626901124271</v>
       </c>
       <c r="V37" t="n">
-        <v>1429.177598462019</v>
+        <v>1527.457965734752</v>
       </c>
       <c r="W37" t="n">
-        <v>1162.367674970178</v>
+        <v>1285.218134061094</v>
       </c>
       <c r="X37" t="n">
-        <v>922.1924012254576</v>
+        <v>1069.612952134557</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.1924012254576</v>
+        <v>871.9798541887155</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1546.762621281815</v>
+        <v>1471.336761007498</v>
       </c>
       <c r="C38" t="n">
-        <v>1546.762621281815</v>
+        <v>1062.980860930972</v>
       </c>
       <c r="D38" t="n">
-        <v>1116.069317378126</v>
+        <v>656.8576488454664</v>
       </c>
       <c r="E38" t="n">
-        <v>1116.069317378126</v>
+        <v>656.8576488454664</v>
       </c>
       <c r="F38" t="n">
-        <v>705.997832481833</v>
+        <v>656.8576488454664</v>
       </c>
       <c r="G38" t="n">
-        <v>311.7116220831772</v>
+        <v>287.1415302649939</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I38" t="n">
         <v>118.4065018001353</v>
@@ -7189,7 +7189,7 @@
         <v>1463.013992431967</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P38" t="n">
         <v>2043.069798152528</v>
@@ -7207,19 +7207,19 @@
         <v>2360.327577447737</v>
       </c>
       <c r="U38" t="n">
-        <v>2360.327577447737</v>
+        <v>2131.043458709301</v>
       </c>
       <c r="V38" t="n">
-        <v>2360.327577447737</v>
+        <v>2131.043458709301</v>
       </c>
       <c r="W38" t="n">
-        <v>1960.688603780637</v>
+        <v>1755.974576860385</v>
       </c>
       <c r="X38" t="n">
-        <v>1546.762621281815</v>
+        <v>1471.336761007498</v>
       </c>
       <c r="Y38" t="n">
-        <v>1546.762621281815</v>
+        <v>1471.336761007498</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>1119.791305117178</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D39" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E39" t="n">
-        <v>930.5806015906853</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F39" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G39" t="n">
-        <v>762.8256627965038</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I39" t="n">
-        <v>765.099748934576</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J39" t="n">
-        <v>858.9930882810432</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K39" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L39" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M39" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N39" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P39" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q39" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R39" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S39" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T39" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U39" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V39" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W39" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X39" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y39" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>895.114962893952</v>
+        <v>709.9478082097787</v>
       </c>
       <c r="C40" t="n">
-        <v>727.7697322990439</v>
+        <v>567.172669433054</v>
       </c>
       <c r="D40" t="n">
-        <v>727.7697322990439</v>
+        <v>431.081249374627</v>
       </c>
       <c r="E40" t="n">
-        <v>563.2282094716481</v>
+        <v>291.1098183654146</v>
       </c>
       <c r="F40" t="n">
-        <v>391.7376363552713</v>
+        <v>144.1893370672212</v>
       </c>
       <c r="G40" t="n">
-        <v>232.2129368896568</v>
+        <v>144.1893370672212</v>
       </c>
       <c r="H40" t="n">
-        <v>105.0853571908397</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J40" t="n">
-        <v>111.2248882026597</v>
+        <v>135.3060351936612</v>
       </c>
       <c r="K40" t="n">
-        <v>213.1376617217398</v>
+        <v>536.0584102748784</v>
       </c>
       <c r="L40" t="n">
-        <v>707.8593460130782</v>
+        <v>689.1230318356997</v>
       </c>
       <c r="M40" t="n">
-        <v>1292.040421431393</v>
+        <v>848.9212441167525</v>
       </c>
       <c r="N40" t="n">
-        <v>1866.910809344449</v>
+        <v>1423.079327410101</v>
       </c>
       <c r="O40" t="n">
-        <v>1989.789363643733</v>
+        <v>1570.039028700386</v>
       </c>
       <c r="P40" t="n">
-        <v>2095.671092772938</v>
+        <v>2047.508798790934</v>
       </c>
       <c r="Q40" t="n">
-        <v>2338.743811819448</v>
+        <v>2314.662664828446</v>
       </c>
       <c r="R40" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447737</v>
+        <v>2245.687611692021</v>
       </c>
       <c r="T40" t="n">
-        <v>2123.296834273011</v>
+        <v>2033.226960335478</v>
       </c>
       <c r="U40" t="n">
-        <v>1850.12668324362</v>
+        <v>1784.626901124271</v>
       </c>
       <c r="V40" t="n">
-        <v>1568.387656035918</v>
+        <v>1527.457965734752</v>
       </c>
       <c r="W40" t="n">
-        <v>1301.577732544076</v>
+        <v>1285.218134061094</v>
       </c>
       <c r="X40" t="n">
-        <v>1301.577732544076</v>
+        <v>1069.612952134557</v>
       </c>
       <c r="Y40" t="n">
-        <v>1081.717100691072</v>
+        <v>871.9798541887155</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1597.981866550501</v>
+        <v>1255.398792586856</v>
       </c>
       <c r="C41" t="n">
-        <v>1165.055874655791</v>
+        <v>1255.398792586856</v>
       </c>
       <c r="D41" t="n">
-        <v>734.3625707521026</v>
+        <v>849.2755805013511</v>
       </c>
       <c r="E41" t="n">
-        <v>734.3625707521026</v>
+        <v>445.2874083996966</v>
       </c>
       <c r="F41" t="n">
-        <v>311.7116220831772</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G41" t="n">
-        <v>311.7116220831772</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H41" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867026</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M41" t="n">
         <v>1131.58869045549</v>
@@ -7432,7 +7432,7 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q41" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
         <v>2360.327577447737</v>
@@ -7441,22 +7441,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T41" t="n">
-        <v>2153.772806838716</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U41" t="n">
-        <v>2153.772806838716</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V41" t="n">
-        <v>1796.37233769441</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W41" t="n">
-        <v>1796.37233769441</v>
+        <v>2041.267681012353</v>
       </c>
       <c r="X41" t="n">
-        <v>1796.37233769441</v>
+        <v>1651.911790331714</v>
       </c>
       <c r="Y41" t="n">
-        <v>1796.37233769441</v>
+        <v>1651.911790331714</v>
       </c>
     </row>
     <row r="42">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>780.1969971561539</v>
+        <v>709.9478082097796</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1969971561539</v>
+        <v>567.1726694330549</v>
       </c>
       <c r="D43" t="n">
-        <v>727.7697322990439</v>
+        <v>502.3617853274935</v>
       </c>
       <c r="E43" t="n">
-        <v>563.2282094716481</v>
+        <v>362.3903543182811</v>
       </c>
       <c r="F43" t="n">
-        <v>391.7376363552713</v>
+        <v>215.4698730200876</v>
       </c>
       <c r="G43" t="n">
-        <v>232.2129368896568</v>
+        <v>80.51526537265636</v>
       </c>
       <c r="H43" t="n">
-        <v>105.0853571908397</v>
+        <v>80.51526537265636</v>
       </c>
       <c r="I43" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
-        <v>197.8045733673496</v>
+        <v>135.3060351936612</v>
       </c>
       <c r="K43" t="n">
-        <v>299.7173468864297</v>
+        <v>261.2999557037427</v>
       </c>
       <c r="L43" t="n">
-        <v>846.9107032242105</v>
+        <v>832.5744590325251</v>
       </c>
       <c r="M43" t="n">
-        <v>1431.091778642525</v>
+        <v>992.3726713135778</v>
       </c>
       <c r="N43" t="n">
-        <v>1563.703363397937</v>
+        <v>1576.553746731893</v>
       </c>
       <c r="O43" t="n">
-        <v>2106.251166923002</v>
+        <v>1738.231803564719</v>
       </c>
       <c r="P43" t="n">
-        <v>2263.863867637271</v>
+        <v>2215.701573655267</v>
       </c>
       <c r="Q43" t="n">
-        <v>2338.743811819448</v>
+        <v>2314.662664828446</v>
       </c>
       <c r="R43" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2221.117519873838</v>
+        <v>2245.687611692022</v>
       </c>
       <c r="T43" t="n">
-        <v>1984.086776699112</v>
+        <v>2033.226960335479</v>
       </c>
       <c r="U43" t="n">
-        <v>1710.916625669722</v>
+        <v>1784.626901124272</v>
       </c>
       <c r="V43" t="n">
-        <v>1429.177598462019</v>
+        <v>1527.457965734753</v>
       </c>
       <c r="W43" t="n">
-        <v>1429.177598462019</v>
+        <v>1285.218134061095</v>
       </c>
       <c r="X43" t="n">
-        <v>1189.002324717299</v>
+        <v>1069.612952134558</v>
       </c>
       <c r="Y43" t="n">
-        <v>966.799134953274</v>
+        <v>871.9798541887164</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1641.648052763359</v>
+        <v>1912.507580222683</v>
       </c>
       <c r="C44" t="n">
-        <v>1641.648052763359</v>
+        <v>1483.838078928635</v>
       </c>
       <c r="D44" t="n">
-        <v>1205.738267937803</v>
+        <v>1057.401265625608</v>
       </c>
       <c r="E44" t="n">
-        <v>771.9635230960985</v>
+        <v>633.0994923064313</v>
       </c>
       <c r="F44" t="n">
-        <v>344.0960935053062</v>
+        <v>214.7050342381674</v>
       </c>
       <c r="G44" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H44" t="n">
         <v>47.20655154895474</v>
@@ -7654,10 +7654,10 @@
         <v>512.3249274228016</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
         <v>1463.013992431967</v>
@@ -7666,7 +7666,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
@@ -7675,25 +7675,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2319.861207662534</v>
+        <v>2329.334179185063</v>
       </c>
       <c r="T44" t="n">
-        <v>2319.861207662534</v>
+        <v>2329.334179185063</v>
       </c>
       <c r="U44" t="n">
-        <v>2060.790516184048</v>
+        <v>2329.334179185063</v>
       </c>
       <c r="V44" t="n">
-        <v>2060.790516184048</v>
+        <v>2329.334179185063</v>
       </c>
       <c r="W44" t="n">
-        <v>2060.790516184048</v>
+        <v>2329.334179185063</v>
       </c>
       <c r="X44" t="n">
-        <v>1641.648052763359</v>
+        <v>2329.334179185063</v>
       </c>
       <c r="Y44" t="n">
-        <v>1641.648052763359</v>
+        <v>2329.334179185063</v>
       </c>
     </row>
     <row r="45">
@@ -7709,13 +7709,13 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E45" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G45" t="n">
         <v>79.1492015823585</v>
@@ -7782,52 +7782,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>753.852136908379</v>
+        <v>682.3925654428406</v>
       </c>
       <c r="C46" t="n">
-        <v>753.852136908379</v>
+        <v>519.3038254485939</v>
       </c>
       <c r="D46" t="n">
-        <v>753.852136908379</v>
+        <v>519.3038254485939</v>
       </c>
       <c r="E46" t="n">
-        <v>584.0941331591162</v>
+        <v>359.0187932218595</v>
       </c>
       <c r="F46" t="n">
-        <v>407.3870791208724</v>
+        <v>191.7847107061442</v>
       </c>
       <c r="G46" t="n">
-        <v>242.6458987333908</v>
+        <v>100.8288665901783</v>
       </c>
       <c r="H46" t="n">
-        <v>110.3018381127067</v>
+        <v>100.8288665901783</v>
       </c>
       <c r="I46" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
-        <v>106.1122152511379</v>
+        <v>201.9763598050578</v>
       </c>
       <c r="K46" t="n">
-        <v>225.2494612384325</v>
+        <v>582.8193743329816</v>
       </c>
       <c r="L46" t="n">
-        <v>767.3301446246915</v>
+        <v>1134.184517108471</v>
       </c>
       <c r="M46" t="n">
-        <v>897.9345369632209</v>
+        <v>1274.07336883623</v>
       </c>
       <c r="N46" t="n">
-        <v>1467.692251924755</v>
+        <v>1410.85674002935</v>
       </c>
       <c r="O46" t="n">
-        <v>2005.127382498298</v>
+        <v>1629.767110360266</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.896438675982</v>
+        <v>2087.327519897521</v>
       </c>
       <c r="Q46" t="n">
-        <v>2343.856484770969</v>
+        <v>2334.572025381739</v>
       </c>
       <c r="R46" t="n">
         <v>2360.327577447737</v>
@@ -7836,22 +7836,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T46" t="n">
-        <v>2255.85072547438</v>
+        <v>2127.553324873672</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.464093523123</v>
+        <v>1858.639664444943</v>
       </c>
       <c r="V46" t="n">
-        <v>1690.508585393554</v>
+        <v>1581.157127837902</v>
       </c>
       <c r="W46" t="n">
-        <v>1418.482180979845</v>
+        <v>1318.603694946722</v>
       </c>
       <c r="X46" t="n">
-        <v>1173.090426313258</v>
+        <v>1082.684911802663</v>
       </c>
       <c r="Y46" t="n">
-        <v>945.6707556273661</v>
+        <v>864.7382126392993</v>
       </c>
     </row>
   </sheetData>
@@ -8847,22 +8847,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>84.02183914448</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P13" t="n">
         <v>351.0170646165068</v>
@@ -9090,16 +9090,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>458.1582657371569</v>
+        <v>91.89342289100068</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>141.4680432173448</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>141.4680432173448</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>276.3480741774479</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,19 +9558,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080415</v>
+        <v>155.0558105425218</v>
       </c>
       <c r="M22" t="n">
-        <v>192.801941008518</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -9795,19 +9795,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>91.89342289100068</v>
       </c>
       <c r="N25" t="n">
-        <v>425.1565999595434</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>429.055606133375</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>432.1924551582638</v>
+        <v>90.41931434774779</v>
       </c>
       <c r="O28" t="n">
-        <v>362.3510875626625</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10275,13 +10275,13 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>418.6321221063815</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>291.2235275066284</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -10509,22 +10509,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.85495555288958</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>334.2279458406526</v>
       </c>
       <c r="M34" t="n">
-        <v>423.8912900207266</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>427.0281390456153</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
         <v>169.8916917821538</v>
@@ -10749,7 +10749,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>129.2391313893719</v>
+        <v>334.2279458406522</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -10758,7 +10758,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>351.0170646165068</v>
@@ -10983,22 +10983,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>369.4325350722411</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>452.9939496245086</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>421.6821732797328</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
         <v>169.8916917821538</v>
@@ -11217,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -11226,16 +11226,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>452.9939496245087</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>431.8064077493959</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>14.86702580054634</v>
       </c>
       <c r="P43" t="n">
-        <v>52.2535066515793</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11454,10 +11454,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
-        <v>22.5627731512489</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
@@ -11466,13 +11466,13 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>92.78790868073202</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821538</v>
@@ -23260,22 +23260,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>79.57925990787726</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>197.6740882443238</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
@@ -23317,16 +23317,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>93.63231361822164</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>109.9025982497421</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>131.0206200144772</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811442</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>412.5589456627854</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>424.2834189711377</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>422.0730578600267</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>419.9593682760145</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>4.808992384977785</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>30.58407697007774</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>349.5131514482385</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>391.3292709258038</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>15.07536101212889</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>158.5827945944969</v>
       </c>
       <c r="F16" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>85.37061988476057</v>
+        <v>121.542990897204</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>52.98670458084118</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>139.1533219532712</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>114.238605431729</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>424.2834189711377</v>
       </c>
       <c r="D17" t="n">
-        <v>53.92146422463793</v>
+        <v>422.0730578600267</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>419.9593682760145</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,7 +23749,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>257.5467068242554</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>30.58407697007774</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>200.1759098983057</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>247.0023554464279</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>349.5131514482385</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>144.1199770814344</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>148.3543214983346</v>
+        <v>153.6161394663335</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>121.542990897204</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>52.98670458084118</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>229.7139895709999</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>404.6583884846289</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>402.4480273735179</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>419.9593682760145</v>
       </c>
       <c r="F20" t="n">
-        <v>394.4860956911023</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>386.0300352900443</v>
       </c>
       <c r="H20" t="n">
-        <v>237.9216763377466</v>
+        <v>257.5467068242554</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>10.95904648356898</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>180.5508794117969</v>
+        <v>200.1759098983057</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>66.09657511748171</v>
       </c>
       <c r="V20" t="n">
-        <v>329.8881209617297</v>
+        <v>349.5131514482385</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>391.3292709258038</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>394.7256333460699</v>
       </c>
     </row>
     <row r="21">
@@ -24132,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.7415837532193</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>48.86967882999362</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>52.98670458084118</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>177.8903547281825</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>215.6678448617596</v>
       </c>
     </row>
     <row r="23">
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>412.5589456627854</v>
       </c>
       <c r="C23" t="n">
-        <v>404.6583884846289</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>402.4480273735179</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>394.4860956911023</v>
+        <v>414.1111261776111</v>
       </c>
       <c r="G23" t="n">
-        <v>366.4050048035356</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>237.9216763377466</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>10.95904648356898</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>200.1759098983057</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>247.0023554464279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>371.704240439295</v>
+        <v>391.3292709258038</v>
       </c>
       <c r="X23" t="n">
-        <v>2.043744701695857</v>
+        <v>405.4734096692092</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>394.7256333460699</v>
       </c>
     </row>
     <row r="24">
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>75.97239431748736</v>
+        <v>158.5827945944969</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>101.9179604106952</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>52.98670458084118</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>260.6963128504749</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>392.9339151762767</v>
+        <v>412.5589456627854</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>424.2834189711377</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>422.0730578600267</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>56.74903416874588</v>
       </c>
       <c r="F26" t="n">
-        <v>394.4860956911023</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>366.4050048035356</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>237.9216763377466</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24499,19 +24499,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>227.3773249599192</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>349.5131514482385</v>
       </c>
       <c r="W26" t="n">
-        <v>371.704240439295</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>199.7979669072155</v>
+        <v>405.4734096692092</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>394.7256333460699</v>
       </c>
     </row>
     <row r="27">
@@ -24600,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>180.422803414524</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>76.17516374952966</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>42.61072022315449</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>101.9179604106952</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>33.36167409433242</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>215.6678448617596</v>
       </c>
     </row>
     <row r="29">
@@ -24679,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>387.7695990636283</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>35.98026116240914</v>
+        <v>125.2870016170075</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>395.1700216768574</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>403.4782900895376</v>
       </c>
       <c r="G29" t="n">
-        <v>361.2406886908872</v>
+        <v>375.3971992019709</v>
       </c>
       <c r="H29" t="n">
-        <v>232.7573602250983</v>
+        <v>246.9138707361819</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>19.95124088200426</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>189.5430738102322</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>236.3695193583544</v>
       </c>
       <c r="V29" t="n">
-        <v>324.7238048490814</v>
+        <v>338.880315360165</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>380.6964348377303</v>
       </c>
       <c r="X29" t="n">
-        <v>380.684063070052</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>169.7899673264505</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>142.98330337826</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24891,7 +24891,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>100.4256130384563</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>387.7695990636283</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>389.321779578454</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>361.2406886908872</v>
+        <v>366.0189573946677</v>
       </c>
       <c r="H32" t="n">
-        <v>232.7573602250983</v>
+        <v>237.5356289288788</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>5.794730370920647</v>
+        <v>10.57299907470115</v>
       </c>
       <c r="T32" t="n">
-        <v>36.03377288989259</v>
+        <v>180.1648320029291</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>226.9912775510514</v>
       </c>
       <c r="V32" t="n">
-        <v>324.7238048490814</v>
+        <v>329.5020735528619</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>371.3181930304272</v>
       </c>
       <c r="X32" t="n">
-        <v>380.684063070052</v>
+        <v>88.40304360473056</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>374.7145554506932</v>
       </c>
     </row>
     <row r="33">
@@ -25128,13 +25128,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>172.0996435951643</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>100.4256130384571</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>140.1936286502993</v>
+        <v>392.5478677674088</v>
       </c>
       <c r="C35" t="n">
-        <v>428.5967319757626</v>
+        <v>404.2723410757611</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25165,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>418.424439182236</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>390.3433482946692</v>
+        <v>28.91998518665622</v>
       </c>
       <c r="H35" t="n">
-        <v>261.8600198288803</v>
+        <v>237.5356289288788</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.89738997470266</v>
+        <v>10.57299907470115</v>
       </c>
       <c r="T35" t="n">
-        <v>204.4892229029305</v>
+        <v>180.1648320029291</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3156684510528</v>
+        <v>226.9912775510514</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>329.5020735528619</v>
       </c>
       <c r="W35" t="n">
-        <v>395.6425839304287</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>374.7145554506932</v>
       </c>
     </row>
     <row r="36">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>159.0548967578442</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>5.518955338743666</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>157.9294524709584</v>
+        <v>133.6050615709569</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>32.97562668546459</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>219.9811578663845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>416.8722586674103</v>
+        <v>392.5478677674088</v>
       </c>
       <c r="C38" t="n">
-        <v>428.5967319757626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>424.2726812806394</v>
+        <v>399.9482903806379</v>
       </c>
       <c r="F38" t="n">
-        <v>12.45366913490551</v>
+        <v>394.1000482822345</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.89738997470266</v>
+        <v>10.57299907470115</v>
       </c>
       <c r="T38" t="n">
-        <v>204.4892229029305</v>
+        <v>180.1648320029291</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3156684510528</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.8264644528634</v>
+        <v>329.5020735528619</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>103.6708940794747</v>
       </c>
       <c r="Y38" t="n">
-        <v>399.0389463506947</v>
+        <v>374.7145554506932</v>
       </c>
     </row>
     <row r="39">
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>159.0548967578442</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>133.6050615709569</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>5.518955338743638</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>32.97562668546459</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>137.8179569981595</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>237.7735210072733</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.319132331910339</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>220.4656922349404</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>404.2723410757611</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>424.2726812806394</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>390.3433482946692</v>
+        <v>366.0189573946677</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>237.5356289288788</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.89738997470266</v>
+        <v>10.57299907470115</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>180.1648320029291</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3156684510528</v>
+        <v>226.9912775510514</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>329.5020735528619</v>
       </c>
       <c r="W41" t="n">
-        <v>395.6425839304287</v>
+        <v>55.44889555939659</v>
       </c>
       <c r="X41" t="n">
-        <v>409.786722673834</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>399.0389463506947</v>
+        <v>374.7145554506932</v>
       </c>
     </row>
     <row r="42">
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>165.671778288959</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>107.1519045493053</v>
+        <v>70.56773059333692</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>101.5319130018274</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>264.141824256923</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>368.6113538120583</v>
+        <v>220.305924737694</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>257.6460941342256</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>200.2752972082758</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>247.1017427563981</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>349.6125387582086</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>391.4286582357739</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>405.5727969791793</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>394.82502065604</v>
       </c>
     </row>
     <row r="45">
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>154.8409710631894</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>63.66924110149746</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>121.6423782071741</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>133.6040313035047</v>
       </c>
       <c r="T46" t="n">
-        <v>136.3926684020044</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>287906.0897883685</v>
+        <v>298606.7121669347</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>287906.0897883684</v>
+        <v>298606.7121669347</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>320764.1565874226</v>
+        <v>298606.7121669347</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>320764.1565874226</v>
+        <v>298606.7121669347</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>320764.1565874225</v>
+        <v>298606.7121669347</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>326594.8760512471</v>
+        <v>310611.6094238132</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>326594.876051247</v>
+        <v>321200.0195539307</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>293736.809252193</v>
+        <v>321200.0195539306</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>293736.8092521929</v>
+        <v>321200.0195539307</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>293736.8092521929</v>
+        <v>321200.0195539307</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>287906.0897883684</v>
+        <v>298494.499918486</v>
       </c>
     </row>
   </sheetData>
@@ -26325,37 +26325,37 @@
         <v>283135.6283414713</v>
       </c>
       <c r="F2" t="n">
-        <v>283135.6283414712</v>
+        <v>295712.063074928</v>
       </c>
       <c r="G2" t="n">
-        <v>283135.6283414713</v>
+        <v>295712.063074928</v>
       </c>
       <c r="H2" t="n">
-        <v>321753.6935293055</v>
+        <v>295712.063074928</v>
       </c>
       <c r="I2" t="n">
-        <v>321753.6935293055</v>
+        <v>295712.063074928</v>
       </c>
       <c r="J2" t="n">
-        <v>321753.6935293056</v>
+        <v>295712.0630749279</v>
       </c>
       <c r="K2" t="n">
-        <v>328606.5344381458</v>
+        <v>309821.4112503582</v>
       </c>
       <c r="L2" t="n">
-        <v>328606.5344381458</v>
+        <v>322265.9629989773</v>
       </c>
       <c r="M2" t="n">
-        <v>289988.4692503111</v>
+        <v>322265.9629989773</v>
       </c>
       <c r="N2" t="n">
-        <v>289988.4692503111</v>
+        <v>322265.9629989773</v>
       </c>
       <c r="O2" t="n">
-        <v>289988.4692503113</v>
+        <v>322265.9629989774</v>
       </c>
       <c r="P2" t="n">
-        <v>283135.6283414712</v>
+        <v>295580.1800900899</v>
       </c>
     </row>
     <row r="3">
@@ -26374,16 +26374,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>551135.2009906757</v>
+        <v>551135.2009906759</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>7582.103293818598</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>23282.12768302561</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26392,10 +26392,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4131.452890118671</v>
+        <v>16088.37216427739</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>7502.593445842482</v>
       </c>
       <c r="M3" t="n">
         <v>147050.7684025715</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
-        <v>20967.98795247263</v>
+        <v>20967.98795247264</v>
       </c>
       <c r="F4" t="n">
-        <v>20967.98795247263</v>
+        <v>28935.1167498193</v>
       </c>
       <c r="G4" t="n">
-        <v>20967.98795247263</v>
+        <v>28935.11674981931</v>
       </c>
       <c r="H4" t="n">
-        <v>45432.40141913691</v>
+        <v>28935.1167498193</v>
       </c>
       <c r="I4" t="n">
-        <v>45432.40141913692</v>
+        <v>28935.1167498193</v>
       </c>
       <c r="J4" t="n">
-        <v>45432.40141913693</v>
+        <v>28935.11674981935</v>
       </c>
       <c r="K4" t="n">
-        <v>49773.65291891281</v>
+        <v>37873.34101946974</v>
       </c>
       <c r="L4" t="n">
-        <v>49773.6529189128</v>
+        <v>45756.92239271316</v>
       </c>
       <c r="M4" t="n">
-        <v>25309.2394522485</v>
+        <v>45756.92239271315</v>
       </c>
       <c r="N4" t="n">
-        <v>25309.2394522485</v>
+        <v>45756.92239271315</v>
       </c>
       <c r="O4" t="n">
-        <v>25309.2394522485</v>
+        <v>45756.92239271315</v>
       </c>
       <c r="P4" t="n">
-        <v>20967.98795247263</v>
+        <v>28851.56932571607</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963783</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963782</v>
+        <v>46847.85601189787</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963782</v>
+        <v>46847.85601189787</v>
       </c>
       <c r="H5" t="n">
-        <v>48497.71269986816</v>
+        <v>46847.85601189786</v>
       </c>
       <c r="I5" t="n">
-        <v>48497.71269986816</v>
+        <v>46847.85601189787</v>
       </c>
       <c r="J5" t="n">
-        <v>48497.71269986817</v>
+        <v>46847.85601189787</v>
       </c>
       <c r="K5" t="n">
-        <v>48931.87159114241</v>
+        <v>47741.74790898612</v>
       </c>
       <c r="L5" t="n">
-        <v>48931.87159114239</v>
+        <v>48530.16731948428</v>
       </c>
       <c r="M5" t="n">
-        <v>46485.24010091205</v>
+        <v>48530.16731948427</v>
       </c>
       <c r="N5" t="n">
-        <v>46485.24010091205</v>
+        <v>48530.16731948427</v>
       </c>
       <c r="O5" t="n">
-        <v>46485.24010091205</v>
+        <v>48530.16731948428</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963782</v>
+        <v>46839.50062013599</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138687.8532889797</v>
+        <v>138655.946571478</v>
       </c>
       <c r="C6" t="n">
-        <v>138687.8532889797</v>
+        <v>138655.946571478</v>
       </c>
       <c r="D6" t="n">
-        <v>138687.8532889796</v>
+        <v>138655.946571478</v>
       </c>
       <c r="E6" t="n">
-        <v>-335018.6418113149</v>
+        <v>-335572.522254537</v>
       </c>
       <c r="F6" t="n">
-        <v>216116.5591793607</v>
+        <v>211828.0411170966</v>
       </c>
       <c r="G6" t="n">
-        <v>216116.5591793608</v>
+        <v>219410.1444109151</v>
       </c>
       <c r="H6" t="n">
-        <v>204541.4517272748</v>
+        <v>219410.1444109151</v>
       </c>
       <c r="I6" t="n">
-        <v>227823.5794103004</v>
+        <v>219410.1444109151</v>
       </c>
       <c r="J6" t="n">
-        <v>227823.5794103005</v>
+        <v>219410.144410915</v>
       </c>
       <c r="K6" t="n">
-        <v>225769.5570379719</v>
+        <v>207638.1968891499</v>
       </c>
       <c r="L6" t="n">
-        <v>229901.0099280906</v>
+        <v>220031.0947717641</v>
       </c>
       <c r="M6" t="n">
-        <v>71143.22129457913</v>
+        <v>80482.91981503507</v>
       </c>
       <c r="N6" t="n">
-        <v>218193.9896971506</v>
+        <v>227533.6882176065</v>
       </c>
       <c r="O6" t="n">
-        <v>218193.9896971507</v>
+        <v>227533.6882176067</v>
       </c>
       <c r="P6" t="n">
-        <v>216116.5591793607</v>
+        <v>219369.7979003176</v>
       </c>
     </row>
   </sheetData>
@@ -26697,37 +26697,37 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="H2" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="I2" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="J2" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="K2" t="n">
-        <v>34.26697571643034</v>
+        <v>20.11046520534673</v>
       </c>
       <c r="L2" t="n">
-        <v>34.26697571643034</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="M2" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="N2" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="O2" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>9.378241807303102</v>
       </c>
     </row>
     <row r="3">
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="F3" t="n">
         <v>466.7019280932212</v>
@@ -26798,34 +26798,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>590.0818943619344</v>
+      </c>
+      <c r="F4" t="n">
+        <v>590.0818943619344</v>
+      </c>
+      <c r="G4" t="n">
+        <v>590.0818943619344</v>
+      </c>
+      <c r="H4" t="n">
+        <v>590.0818943619342</v>
+      </c>
+      <c r="I4" t="n">
+        <v>590.0818943619344</v>
+      </c>
+      <c r="J4" t="n">
+        <v>590.0818943619344</v>
+      </c>
+      <c r="K4" t="n">
+        <v>590.0818943619344</v>
+      </c>
+      <c r="L4" t="n">
+        <v>590.0818943619342</v>
+      </c>
+      <c r="M4" t="n">
         <v>590.0818943619341</v>
       </c>
-      <c r="F4" t="n">
-        <v>590.0818943619342</v>
-      </c>
-      <c r="G4" t="n">
-        <v>590.0818943619342</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="N4" t="n">
         <v>590.0818943619341</v>
-      </c>
-      <c r="I4" t="n">
-        <v>590.0818943619341</v>
-      </c>
-      <c r="J4" t="n">
-        <v>590.0818943619342</v>
-      </c>
-      <c r="K4" t="n">
-        <v>590.0818943619342</v>
-      </c>
-      <c r="L4" t="n">
-        <v>590.0818943619341</v>
-      </c>
-      <c r="M4" t="n">
-        <v>590.0818943619342</v>
-      </c>
-      <c r="N4" t="n">
-        <v>590.0818943619342</v>
       </c>
       <c r="O4" t="n">
         <v>590.0818943619342</v>
@@ -26919,13 +26919,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>29.10265960378201</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26934,10 +26934,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5.164316112648339</v>
+        <v>20.11046520534673</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>9.378241807303102</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932213</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27156,13 +27156,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>29.10265960378201</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.164316112648339</v>
+        <v>20.11046520534673</v>
       </c>
     </row>
     <row r="3">
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619344</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>9.477629117273247</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="C20" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="D20" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="E20" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="F20" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="G20" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="H20" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="T20" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="U20" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="V20" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="W20" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="X20" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="Y20" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="C22" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="D22" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="E22" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="F22" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="G22" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="H22" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="I22" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="J22" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="K22" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="L22" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="M22" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="N22" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="O22" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="P22" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="R22" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="S22" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="T22" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="U22" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="V22" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="W22" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="X22" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="Y22" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="C23" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="D23" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="E23" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="F23" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="G23" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="H23" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="T23" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="U23" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="V23" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="W23" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="X23" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="Y23" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="C25" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="D25" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="E25" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="F25" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="G25" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="H25" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="I25" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="J25" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="K25" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="L25" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="M25" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="N25" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="O25" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="P25" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="R25" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="S25" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="T25" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="U25" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="V25" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="W25" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="X25" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="Y25" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
     </row>
     <row r="26">
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="C26" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="D26" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="E26" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="F26" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="G26" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="H26" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29322,28 +29322,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S26" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="T26" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="U26" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="V26" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="W26" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="X26" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="Y26" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="C28" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="D28" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="E28" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="F28" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="G28" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="H28" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="I28" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="J28" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="K28" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="L28" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="M28" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="N28" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="O28" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="P28" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="R28" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="S28" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="T28" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="U28" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="V28" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="W28" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="X28" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
       <c r="Y28" t="n">
-        <v>29.10265960378201</v>
+        <v>9.477629117273247</v>
       </c>
     </row>
     <row r="29">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>34.26697571643034</v>
+        <v>20.11046520534673</v>
       </c>
       <c r="C29" t="n">
-        <v>34.26697571643034</v>
+        <v>20.11046520534673</v>
       </c>
       <c r="D29" t="n">
-        <v>34.26697571643034</v>
+        <v>20.11046520534673</v>
       </c>
       <c r="E29" t="n">
-        <v>34.26697571643034</v>
+        <v>20.11046520534673</v>
       </c>
       <c r="F29" t="n">
-        <v>34.26697571643034</v>
+        <v>20.11046520534673</v>
       </c>
       <c r="G29" t="n">
-        <v>34.26697571643034</v>
+        <v>20.11046520534673</v>
       </c>
       <c r="H29" t="n">
-        <v>34.26697571643034</v>
+        <v>20.11046520534673</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>34.26697571643034</v>
+        <v>20.11046520534673</v>
       </c>
       <c r="T29" t="n">
-        <v>34.26697571643034</v>
+        <v>20.11046520534673</v>
       </c>
       <c r="U29" t="n">
-        <v>34.26697571643034</v>
+        <v>20.11046520534673</v>
       </c>
       <c r="V29" t="n">
-        <v>34.26697571643034</v>
+        <v>20.11046520534673</v>
       </c>
       <c r="W29" t="n">
-        <v>34.26697571643034</v>
+        <v>20.11046520534673</v>
       </c>
       <c r="X29" t="n">
-        <v>34.26697571643034</v>
+        <v>20.11046520534673</v>
       </c>
       <c r="Y29" t="n">
-        <v>34.26697571643034</v>
+        <v>20.11046520534673</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>34.26697571643034</v>
+        <v>20.11046520534673</v>
       </c>
       <c r="C31" t="n">
-        <v>34.26697571643034</v>
+        <v>20.11046520534673</v>
       </c>
       <c r="D31" t="n">
-        <v>34.26697571643034</v>
+        <v>20.11046520534673</v>
       </c>
       <c r="E31" t="n">
-        <v>34.26697571643034</v>
+        <v>20.11046520534673</v>
       </c>
       <c r="F31" t="n">
-        <v>34.26697571643034</v>
+        <v>20.11046520534673</v>
       </c>
       <c r="G31" t="n">
-        <v>34.26697571643034</v>
+        <v>20.11046520534673</v>
       </c>
       <c r="H31" t="n">
-        <v>34.26697571643034</v>
+        <v>20.11046520534673</v>
       </c>
       <c r="I31" t="n">
-        <v>34.26697571643034</v>
+        <v>20.11046520534673</v>
       </c>
       <c r="J31" t="n">
-        <v>34.26697571643034</v>
+        <v>20.11046520534673</v>
       </c>
       <c r="K31" t="n">
-        <v>34.26697571643034</v>
+        <v>20.11046520534673</v>
       </c>
       <c r="L31" t="n">
-        <v>34.26697571643034</v>
+        <v>20.11046520534673</v>
       </c>
       <c r="M31" t="n">
-        <v>34.26697571643034</v>
+        <v>20.11046520534673</v>
       </c>
       <c r="N31" t="n">
-        <v>34.26697571643034</v>
+        <v>20.11046520534673</v>
       </c>
       <c r="O31" t="n">
-        <v>34.26697571643034</v>
+        <v>20.11046520534673</v>
       </c>
       <c r="P31" t="n">
-        <v>34.26697571643034</v>
+        <v>20.11046520534673</v>
       </c>
       <c r="Q31" t="n">
-        <v>34.26697571643034</v>
+        <v>20.11046520534673</v>
       </c>
       <c r="R31" t="n">
-        <v>34.26697571643034</v>
+        <v>20.11046520534673</v>
       </c>
       <c r="S31" t="n">
-        <v>34.26697571643034</v>
+        <v>20.11046520534673</v>
       </c>
       <c r="T31" t="n">
-        <v>34.26697571643034</v>
+        <v>20.11046520534673</v>
       </c>
       <c r="U31" t="n">
-        <v>34.26697571643034</v>
+        <v>20.11046520534673</v>
       </c>
       <c r="V31" t="n">
-        <v>34.26697571643034</v>
+        <v>20.11046520534673</v>
       </c>
       <c r="W31" t="n">
-        <v>34.26697571643034</v>
+        <v>20.11046520534673</v>
       </c>
       <c r="X31" t="n">
-        <v>34.26697571643034</v>
+        <v>20.11046520534673</v>
       </c>
       <c r="Y31" t="n">
-        <v>34.26697571643034</v>
+        <v>20.11046520534673</v>
       </c>
     </row>
     <row r="32">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>34.26697571643034</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="C32" t="n">
-        <v>34.26697571643034</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="D32" t="n">
-        <v>34.26697571643034</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="E32" t="n">
-        <v>34.26697571643034</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="F32" t="n">
-        <v>34.26697571643034</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="G32" t="n">
-        <v>34.26697571643034</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="H32" t="n">
-        <v>34.26697571643034</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>34.26697571643034</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="T32" t="n">
-        <v>34.26697571643034</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="U32" t="n">
-        <v>34.26697571643034</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="V32" t="n">
-        <v>34.26697571643034</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="W32" t="n">
-        <v>34.26697571643034</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="X32" t="n">
-        <v>34.26697571643034</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="Y32" t="n">
-        <v>34.26697571643034</v>
+        <v>29.48870701264984</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>34.26697571643034</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="C34" t="n">
-        <v>34.26697571643034</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="D34" t="n">
-        <v>34.26697571643034</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="E34" t="n">
-        <v>34.26697571643034</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="F34" t="n">
-        <v>34.26697571643034</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="G34" t="n">
-        <v>34.26697571643034</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="H34" t="n">
-        <v>34.26697571643034</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="I34" t="n">
-        <v>34.26697571643034</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="J34" t="n">
-        <v>34.26697571643034</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="K34" t="n">
-        <v>34.26697571643034</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="L34" t="n">
-        <v>34.26697571643034</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="M34" t="n">
-        <v>34.26697571643034</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="N34" t="n">
-        <v>34.26697571643034</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="O34" t="n">
-        <v>34.26697571643034</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="P34" t="n">
-        <v>34.26697571643034</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="Q34" t="n">
-        <v>34.26697571643034</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="R34" t="n">
-        <v>34.26697571643034</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="S34" t="n">
-        <v>34.26697571643034</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="T34" t="n">
-        <v>34.26697571643034</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="U34" t="n">
-        <v>34.26697571643034</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="V34" t="n">
-        <v>34.26697571643034</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="W34" t="n">
-        <v>34.26697571643034</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="X34" t="n">
-        <v>34.26697571643034</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="Y34" t="n">
-        <v>34.26697571643034</v>
+        <v>29.48870701264984</v>
       </c>
     </row>
     <row r="35">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="C35" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="D35" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="E35" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="F35" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="G35" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="H35" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="T35" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="U35" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="V35" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="W35" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="X35" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="Y35" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="C37" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="D37" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="E37" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="F37" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="G37" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="H37" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="I37" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="J37" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="K37" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="L37" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="M37" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="N37" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="O37" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="P37" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="R37" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="S37" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="T37" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="U37" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="V37" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="W37" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="X37" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="Y37" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
     </row>
     <row r="38">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="C38" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="D38" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="E38" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="F38" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="G38" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="H38" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="T38" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="U38" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="V38" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="W38" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="X38" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="Y38" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="C40" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="D40" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="E40" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="F40" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="G40" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="H40" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="I40" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="J40" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="K40" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="L40" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="M40" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="N40" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="O40" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="P40" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="R40" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="S40" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="T40" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="U40" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="V40" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="W40" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="X40" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="Y40" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
     </row>
     <row r="41">
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="C41" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="D41" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="E41" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="F41" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="G41" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="H41" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="T41" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="U41" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="V41" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="W41" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="X41" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="Y41" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="C43" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="D43" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="E43" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="F43" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="G43" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="H43" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="I43" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="J43" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="K43" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="L43" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="M43" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="N43" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="O43" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="P43" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="R43" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="S43" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="T43" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="U43" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="V43" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="W43" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="X43" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
       <c r="Y43" t="n">
-        <v>5.164316112648339</v>
+        <v>29.48870701264984</v>
       </c>
     </row>
     <row r="44">
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>9.378241807303102</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>9.378241807303102</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>9.378241807303102</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>9.378241807303102</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>9.378241807303102</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>9.378241807303102</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>9.378241807303102</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>9.378241807303102</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>9.378241807303102</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>9.378241807303102</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>9.378241807303102</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>9.378241807303102</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>9.378241807303102</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>9.378241807303102</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>9.378241807303102</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>9.378241807303102</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>9.378241807303102</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>9.378241807303102</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>9.378241807303102</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>9.378241807303102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>9.378241807303102</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>9.378241807303102</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>9.378241807303102</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>9.378241807303102</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>9.378241807303102</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>9.378241807303102</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>9.378241807303102</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>9.378241807303102</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>9.378241807303102</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>9.378241807303102</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>9.378241807303102</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>9.378241807303102</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>9.378241807303102</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>9.378241807303102</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>9.378241807303102</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>9.378241807303102</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>9.378241807303102</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>9.378241807303102</v>
       </c>
     </row>
   </sheetData>
@@ -31755,13 +31755,13 @@
         <v>1.876188655651139</v>
       </c>
       <c r="H11" t="n">
-        <v>19.21451706968723</v>
+        <v>19.21451706968724</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699062</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
@@ -31770,10 +31770,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816034</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994722</v>
       </c>
       <c r="O11" t="n">
         <v>316.1166813548411</v>
@@ -31788,10 +31788,10 @@
         <v>117.855135640546</v>
       </c>
       <c r="S11" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065038</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112867</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31831,31 +31831,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.003849430238249</v>
+        <v>1.00384943023825</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879938</v>
       </c>
       <c r="I12" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562341</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N12" t="n">
         <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
         <v>191.6912126917233</v>
@@ -31864,16 +31864,16 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233626</v>
       </c>
       <c r="S12" t="n">
-        <v>18.64606288183764</v>
+        <v>18.64606288183765</v>
       </c>
       <c r="T12" t="n">
         <v>4.046217659600662</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356907</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,25 +31910,25 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238416</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051978</v>
       </c>
       <c r="I13" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495699</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>59.5006704062456</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116994</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247772</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N13" t="n">
         <v>128.7867795998885</v>
@@ -31940,19 +31940,19 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.47199114207639</v>
+        <v>70.4719911420764</v>
       </c>
       <c r="R13" t="n">
-        <v>37.84111043195198</v>
+        <v>37.841110431952</v>
       </c>
       <c r="S13" t="n">
         <v>14.66668190417549</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701868</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.0459051076813005</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32311,7 +32311,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691673</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562339</v>
@@ -32788,7 +32788,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -32812,7 +32812,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
@@ -33280,7 +33280,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
@@ -33499,7 +33499,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -33733,7 +33733,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562339</v>
@@ -33918,7 +33918,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
         <v>42.75364899065037</v>
@@ -33976,7 +33976,7 @@
         <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415857</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
@@ -34207,7 +34207,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562339</v>
@@ -34392,7 +34392,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405465</v>
       </c>
       <c r="S44" t="n">
         <v>42.75364899065037</v>
@@ -34462,7 +34462,7 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P45" t="n">
         <v>191.6912126917233</v>
@@ -35406,19 +35406,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785922</v>
       </c>
       <c r="J11" t="n">
-        <v>159.2391669125709</v>
+        <v>159.2391669125711</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.658232706284</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
@@ -35488,25 +35488,25 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108056</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811315</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K13" t="n">
-        <v>181.7997185056499</v>
+        <v>375.3116718572665</v>
       </c>
       <c r="L13" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>118.9554357048098</v>
+        <v>296.1475206512703</v>
       </c>
       <c r="P13" t="n">
         <v>452.8039900485103</v>
@@ -35591,7 +35591,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027016</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35649,10 +35649,10 @@
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766681</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>156.4325269625995</v>
       </c>
       <c r="K16" t="n">
-        <v>375.3116718572664</v>
+        <v>384.7893009745397</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>557.0338749619794</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619341</v>
+        <v>233.294680633051</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>138.2644087171616</v>
       </c>
       <c r="O16" t="n">
-        <v>260.4234789221546</v>
+        <v>128.4330648220832</v>
       </c>
       <c r="P16" t="n">
-        <v>452.8039900485103</v>
+        <v>462.2816191657837</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.36368292423</v>
+        <v>249.8413120415034</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027015</v>
+        <v>26.1150964675434</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
@@ -35892,7 +35892,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
@@ -35901,7 +35901,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691673</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L18" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
         <v>254.3525508108055</v>
@@ -35983,10 +35983,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453263</v>
+        <v>68.97829952351883</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572664</v>
+        <v>384.7893009745397</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366645</v>
+        <v>557.0338749619793</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619341</v>
+        <v>141.4012577420506</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>138.2644087171616</v>
       </c>
       <c r="O19" t="n">
-        <v>260.4234789221546</v>
+        <v>552.3413973733775</v>
       </c>
       <c r="P19" t="n">
-        <v>452.8039900485103</v>
+        <v>387.6126287267246</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.36368292423</v>
+        <v>79.94962025934956</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027015</v>
+        <v>26.1150964675434</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916792</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562325</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
@@ -36211,13 +36211,13 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>176.0575574491082</v>
+        <v>68.97829952351884</v>
       </c>
       <c r="K22" t="n">
-        <v>126.8805389649519</v>
+        <v>384.7893009745397</v>
       </c>
       <c r="L22" t="n">
-        <v>576.6589054484881</v>
+        <v>289.6554614964597</v>
       </c>
       <c r="M22" t="n">
-        <v>353.8282292370772</v>
+        <v>141.4012577420505</v>
       </c>
       <c r="N22" t="n">
-        <v>157.8894392036705</v>
+        <v>584.9904725127624</v>
       </c>
       <c r="O22" t="n">
-        <v>148.0580953085919</v>
+        <v>128.4330648220832</v>
       </c>
       <c r="P22" t="n">
-        <v>481.9066496522923</v>
+        <v>462.2816191657835</v>
       </c>
       <c r="Q22" t="n">
-        <v>269.4663425280123</v>
+        <v>249.8413120415034</v>
       </c>
       <c r="R22" t="n">
-        <v>45.74012695405216</v>
+        <v>26.1150964675434</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>159.2391669125707</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K23" t="n">
         <v>238.6582327062838</v>
@@ -36366,13 +36366,13 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P23" t="n">
         <v>269.7982739184536</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>88.60333001002758</v>
+        <v>156.4325269625995</v>
       </c>
       <c r="K25" t="n">
-        <v>404.4143314610485</v>
+        <v>384.7893009745397</v>
       </c>
       <c r="L25" t="n">
-        <v>154.2246814404466</v>
+        <v>557.0338749619794</v>
       </c>
       <c r="M25" t="n">
-        <v>161.0262882285592</v>
+        <v>233.294680633051</v>
       </c>
       <c r="N25" t="n">
-        <v>583.0460391632139</v>
+        <v>138.2644087171616</v>
       </c>
       <c r="O25" t="n">
-        <v>148.0580953085919</v>
+        <v>128.4330648220832</v>
       </c>
       <c r="P25" t="n">
-        <v>481.9066496522923</v>
+        <v>462.2816191657837</v>
       </c>
       <c r="Q25" t="n">
-        <v>269.4663425280123</v>
+        <v>249.8413120415034</v>
       </c>
       <c r="R25" t="n">
-        <v>45.74012695405216</v>
+        <v>26.1150964675434</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
@@ -36612,13 +36612,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R26" t="n">
-        <v>117.8551356405455</v>
+        <v>117.8551356405469</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562339</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>88.60333001002761</v>
+        <v>156.4325269625995</v>
       </c>
       <c r="K28" t="n">
-        <v>126.8805389649519</v>
+        <v>384.7893009745397</v>
       </c>
       <c r="L28" t="n">
-        <v>154.2246814404466</v>
+        <v>134.5996509539378</v>
       </c>
       <c r="M28" t="n">
-        <v>590.0818943619342</v>
+        <v>141.4012577420505</v>
       </c>
       <c r="N28" t="n">
-        <v>590.0818943619342</v>
+        <v>228.6837230649095</v>
       </c>
       <c r="O28" t="n">
-        <v>510.4091828712544</v>
+        <v>552.3413973733775</v>
       </c>
       <c r="P28" t="n">
-        <v>130.8895850357853</v>
+        <v>462.2816191657837</v>
       </c>
       <c r="Q28" t="n">
-        <v>99.57465074585843</v>
+        <v>249.8413120415034</v>
       </c>
       <c r="R28" t="n">
-        <v>45.74012695405216</v>
+        <v>26.1150964675434</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36831,10 +36831,10 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
-        <v>159.2391669125712</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
         <v>296.0766412766674</v>
@@ -36843,7 +36843,7 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994728</v>
       </c>
       <c r="O29" t="n">
         <v>316.1166813548411</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>181.2218735617566</v>
+        <v>167.065363050673</v>
       </c>
       <c r="K31" t="n">
-        <v>409.5786475736968</v>
+        <v>395.4221370626132</v>
       </c>
       <c r="L31" t="n">
-        <v>159.3889975530949</v>
+        <v>563.8646091483929</v>
       </c>
       <c r="M31" t="n">
-        <v>166.1906043412076</v>
+        <v>152.034093830124</v>
       </c>
       <c r="N31" t="n">
-        <v>454.2772828229472</v>
+        <v>148.8972448052352</v>
       </c>
       <c r="O31" t="n">
-        <v>153.2224114212402</v>
+        <v>139.0659009101566</v>
       </c>
       <c r="P31" t="n">
-        <v>487.0709657649406</v>
+        <v>472.9144552538569</v>
       </c>
       <c r="Q31" t="n">
-        <v>274.6306586406604</v>
+        <v>260.4741481295769</v>
       </c>
       <c r="R31" t="n">
-        <v>50.90444306670049</v>
+        <v>36.74793255561688</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
         <v>238.6582327062838</v>
@@ -37077,13 +37077,13 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
         <v>269.7982739184536</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>181.2218735617566</v>
+        <v>176.4436048579761</v>
       </c>
       <c r="K34" t="n">
-        <v>200.8998106304898</v>
+        <v>404.8003788699163</v>
       </c>
       <c r="L34" t="n">
-        <v>159.3889975530949</v>
+        <v>488.8386746899671</v>
       </c>
       <c r="M34" t="n">
-        <v>590.0818943619341</v>
+        <v>161.4123356374271</v>
       </c>
       <c r="N34" t="n">
-        <v>590.081894361934</v>
+        <v>158.2754866125383</v>
       </c>
       <c r="O34" t="n">
-        <v>153.2224114212402</v>
+        <v>148.4441427174597</v>
       </c>
       <c r="P34" t="n">
-        <v>136.0539011484339</v>
+        <v>482.2926970611602</v>
       </c>
       <c r="Q34" t="n">
-        <v>274.6306586406604</v>
+        <v>269.8523899368802</v>
       </c>
       <c r="R34" t="n">
-        <v>50.90444306670049</v>
+        <v>46.12617436291998</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37305,13 +37305,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
         <v>329.4423112816032</v>
@@ -37323,7 +37323,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916782</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562339</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>152.1192139579746</v>
+        <v>176.4436048579761</v>
       </c>
       <c r="K37" t="n">
-        <v>380.475987969915</v>
+        <v>404.8003788699164</v>
       </c>
       <c r="L37" t="n">
-        <v>259.5254693386848</v>
+        <v>488.8386746899666</v>
       </c>
       <c r="M37" t="n">
-        <v>137.0879447374256</v>
+        <v>161.4123356374271</v>
       </c>
       <c r="N37" t="n">
-        <v>133.9510957125368</v>
+        <v>158.2754866125383</v>
       </c>
       <c r="O37" t="n">
-        <v>548.0280843687526</v>
+        <v>148.4441427174597</v>
       </c>
       <c r="P37" t="n">
-        <v>457.9683061611586</v>
+        <v>482.2926970611602</v>
       </c>
       <c r="Q37" t="n">
-        <v>245.5279990368786</v>
+        <v>269.8523899368802</v>
       </c>
       <c r="R37" t="n">
-        <v>21.80178346291849</v>
+        <v>46.12617436291998</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37557,16 +37557,16 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
-        <v>162.0996687415857</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
@@ -37642,10 +37642,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>64.66498651889393</v>
+        <v>88.9893774188954</v>
       </c>
       <c r="K40" t="n">
-        <v>102.9421954738183</v>
+        <v>404.8003788699164</v>
       </c>
       <c r="L40" t="n">
-        <v>499.718873021554</v>
+        <v>154.6107288493145</v>
       </c>
       <c r="M40" t="n">
-        <v>590.0818943619342</v>
+        <v>161.4123356374271</v>
       </c>
       <c r="N40" t="n">
-        <v>580.6771595081375</v>
+        <v>579.9576598922711</v>
       </c>
       <c r="O40" t="n">
-        <v>124.1197518174583</v>
+        <v>148.4441427174597</v>
       </c>
       <c r="P40" t="n">
-        <v>106.9512415446518</v>
+        <v>482.2926970611602</v>
       </c>
       <c r="Q40" t="n">
-        <v>245.5279990368786</v>
+        <v>269.8523899368802</v>
       </c>
       <c r="R40" t="n">
-        <v>21.80178346291849</v>
+        <v>46.12617436291998</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
         <v>238.6582327062838</v>
@@ -37788,7 +37788,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
@@ -37797,13 +37797,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.8551356405455</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>152.1192139579746</v>
+        <v>88.98937741889543</v>
       </c>
       <c r="K43" t="n">
-        <v>102.9421954738183</v>
+        <v>127.2665863738198</v>
       </c>
       <c r="L43" t="n">
-        <v>552.7205619573544</v>
+        <v>577.0449528573558</v>
       </c>
       <c r="M43" t="n">
+        <v>161.4123356374271</v>
+      </c>
+      <c r="N43" t="n">
         <v>590.0818943619342</v>
       </c>
-      <c r="N43" t="n">
-        <v>133.9510957125367</v>
-      </c>
       <c r="O43" t="n">
-        <v>548.0280843687528</v>
+        <v>163.3111685180061</v>
       </c>
       <c r="P43" t="n">
-        <v>159.2047481962309</v>
+        <v>482.2926970611602</v>
       </c>
       <c r="Q43" t="n">
-        <v>75.63630725472467</v>
+        <v>99.96069815472629</v>
       </c>
       <c r="R43" t="n">
-        <v>21.80178346291849</v>
+        <v>46.12617436291998</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38022,10 +38022,10 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
@@ -38034,10 +38034,10 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
         <v>117.8551356405465</v>
@@ -38174,31 +38174,31 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>59.50067040624558</v>
+        <v>156.3331396526294</v>
       </c>
       <c r="K46" t="n">
-        <v>120.3406525124188</v>
+        <v>384.6899136645696</v>
       </c>
       <c r="L46" t="n">
-        <v>547.556245844706</v>
+        <v>556.934487652009</v>
       </c>
       <c r="M46" t="n">
-        <v>131.9236286247773</v>
+        <v>141.3018704320802</v>
       </c>
       <c r="N46" t="n">
-        <v>575.5128433954891</v>
+        <v>138.1650214071915</v>
       </c>
       <c r="O46" t="n">
-        <v>542.8637682561043</v>
+        <v>221.1215861928449</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>462.1822318558134</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.36368292423</v>
+        <v>249.7419247315333</v>
       </c>
       <c r="R46" t="n">
-        <v>16.63746735027015</v>
+        <v>26.01570915757325</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
